--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841850_log.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841850_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14568" windowHeight="10548" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14784" windowHeight="10668" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -101,391 +101,391 @@
     <t>_1236_12</t>
   </si>
   <si>
-    <t>[ 0 24  2 27  1 18 19 16  6 23 26 15  4  5  9 13  8  7 22 17 14 25 20 21
- 11 10  3 12]</t>
-  </si>
-  <si>
-    <t>[ 0 30  2 52 29 27 24  1 55 28 18 35 34 47 43 41 51 46 19 23  5  6 32 54
- 37 22 15 39 26  8  9 13 11 16  7 36 44  4 21 33 31 38 40 14 48 20 17 10
- 12  3 50 42 25 45 53 49]</t>
-  </si>
-  <si>
-    <t>[ 0 30  2 29 27  1 24 58 28 52 80 55 79 35 56 83 34 18 43 57 75  6 47 69
- 41 46 63  5 32 19 74 23 26 71 60 37 54 51 39 13 33 16 22  9 61  7 17 31
-  8 15  4 72 62 11 65 36 73 82 10 21 40 64 38 66 20 44 78 25  3 76 77 59
- 14 12 67 50 68 45 81 53 70 48 42 49]</t>
-  </si>
-  <si>
-    <t>[ 2 24 27  1  0 19 15 23  7 13 18  6 26  9  4 11 16 25  8  5 14 12 10  3
- 20 22 17 21]</t>
-  </si>
-  <si>
-    <t>[ 2 52 24  1 27 30  0 28 51 55 15  7 47 19 41  6 13 29  4 18 43 23 26  9
- 32 33 46 11 35 37 16 45  5 54 53  8 12 36 34 44 10 22 48  3 50 25 14 17
- 31 39 38 40 42 20 49 21]</t>
-  </si>
-  <si>
-    <t>[ 2 83  1  0 30 79 27 24 28 52 75 80 15 41 55 60 65  7 19 51 57  6 29 13
-  4 18 58 43 64 23 26 32 61 46 33 63  9 47 11 56 37 59 69 35 45 71 62  5
- 16 44  3 78 54 10 77 12 38 17 53  8 31 34 74 72 66 73 25 39 68 22 36 14
- 82 48 40 70 20 81 67 50 21 76 49 42]</t>
-  </si>
-  <si>
-    <t>[24 23  2 27 13  0 19 15  1 18  4  5 16  7 20 17 26 25  9  6 11 12 10 22
-  8  3 14 21]</t>
-  </si>
-  <si>
-    <t>[55  2 51 24 13 23 27 52  0 47 29  1 15 37 32 18 30 19 36  4  5 35 33 41
- 16 17 34 43  7 20  9 28 44 31 38 46 39 12 10 54 25 11  6 49 26 45 40  3
- 53 14 48  8 50 22 42 21]</t>
-  </si>
-  <si>
-    <t>[55 83  2 79 13  0 51 24 23 29 75 47  1 37 80 27 52 15 32 64 30  4 19  5
- 77 18 35 71 41 36 33 78 16 28 43 17 34 57 31 65 59  9 60 56 63  7 10 25
- 26  6 61 58 62 48 81 20 44 12 38 46 39 11 50 66 70 54 73 67 22 45 76 69
-  3 68  8 82 40 72 74 21 49 42 14 53]</t>
-  </si>
-  <si>
-    <t>[27 23 24 13 19  2  1  4 15  9 18  0  7  8 16  3 11  5  6 26 21 17 22 25
+    <t>[ 0 24  2 27  1 18 19  6 16 23 15  5 26  8 14  4  7  9 13 22 25 17 11 20
+ 21  3 12 10]</t>
+  </si>
+  <si>
+    <t>[ 0 30  2 29 27 52 24 55  1 28 35 43 18 47 34 19  6  5 41 51 32 26 46 23
+ 15 37 54 16 39  9 13  8 44 22 36 31 11  7 17 33  4 21 40 20 38 14 45  3
+ 12 48 10 50 53 25 42 49]</t>
+  </si>
+  <si>
+    <t>[ 0 30  2 29 27  1 80 24 56 83 58 28 55 52 35 79 18 69 34 47 75  6 43 19
+ 57 41  5 23 46 32 37 63 26 15 71 54 39 74 22 73  9 13 61  8 65  4 51 31
+ 16  7 72 60 64 11 17 62 44 33 36 14 10 40 82 50 20 38 59 78  3 66 25 21
+ 12 81 77 67 70 76 68 53 45 49 48 42]</t>
+  </si>
+  <si>
+    <t>[ 2 24 27  1  0 15 19 23  7  6 13 18  4 26  9 11 16 12  8  5 25 14 10 22
+  3 17 20 21]</t>
+  </si>
+  <si>
+    <t>[ 2 24 52  1 51 28 27 30 55  0  6 15  7 19 41 47 13 23 29 18 32  9 26 43
+  4 46 33 35 11 37  5 36 44 12 45 16 54 22  8 53 10 34  3 48 25 50 38 17
+ 40 39 14 31 49 20 42 21]</t>
+  </si>
+  <si>
+    <t>[ 2 83  1 79  0 30 24 52 28 27 51 75 55 15 41 57 60 80 19 65  7  6 13 29
+ 18 23 43 64 26 46 71  4 47 61  9 33 11 32 63 62 59 58 56 69 37 35 44 77
+ 54  5 74 53  8 22 12 38 10 17 66 16 45 40 76  3 36 78 31 68 81 34 14 48
+ 72 25 73 20 82 67 50 39 70 21 49 42]</t>
+  </si>
+  <si>
+    <t>[24 23  2 27 13  0 19 15  1 18  5 16  4  7 17  9  6 26 25 12 11 20 10  8
+ 22  3 14 21]</t>
+  </si>
+  <si>
+    <t>[55 51  2 24 13  0 52 23 47 29 27 37 32  1 15 30  4 19 36 41 18 43 16  5
+ 35 33 34 17 28  9 44 31  7 39 26 50 10  6 20 38 46  3 12 25 45 49 54 48
+ 53 11 40 14 22 42  8 21]</t>
+  </si>
+  <si>
+    <t>[55 83  2 79  0 13 51 23 24 29 75 52 80 47  1 27 37 32 15 30 64 18 19  4
+  5 77 33 71 41 36 28 35 78 16 58 43 34 17 46 65  7  9 63 26 56 20 59 73
+ 62 31  6 25 57 49 60 69 66 10 39  3 38 12 44 50 72 67 61 11 81 54 68 45
+ 70 40 74 14 76 21  8 22 53 48 82 42]</t>
+  </si>
+  <si>
+    <t>[27 23 24 19 13  2  1  9  4 15 18  8  7 17 16  0  3 11  5 21  6 26 22 25
  10 12 20 14]</t>
   </si>
   <si>
-    <t>[55 27 51 23 13  1  2 52 47 19 24  4  9 15 36 49 43 50 18  7  5  8 30  0
- 16 29 11  6 35 34 37  3 10 33 32 31 21 28 17 39 38 53 45 26 44 12 22 41
- 46 40 54 20 42 25 48 14]</t>
-  </si>
-  <si>
-    <t>[27 55 79 51  1  2 23 78 47 80 19 13 52 24  4  9 59 83 36 15  0 77 43 30
- 49 18  8  5  7 63  6 29 58 16 11 37 50 32 57  3 34 75 10 17 66 35 64 71
- 39 56 28 68 60 61 33 31 45 41 38 69 22 81 74 40 26 70 65 73 67 53 12 44
- 62 25 82 21 20 72 14 54 46 42 48 76]</t>
-  </si>
-  <si>
-    <t>[23 27 24 19 15  8 21 22 13  2 16  7 18 25  9 17  1  4 11  6  0  5 26  3
- 20 12 14 10]</t>
-  </si>
-  <si>
-    <t>[27 51 23 52 19 50 24 55  8 31  2 49 15 13  1 30 35 43 16 28 21 22 17 33
- 47 11 18 29 41  7 38  9 46  4 44 39 12  5  6 36 40 53  3 42 32 45 34  0
- 37 54 25 26 20 10 48 14]</t>
-  </si>
-  <si>
-    <t>[79 27 51 23 19 80 78 77 52 24 55 60  8  2 31 50 59 83 49 15 65 30 17 67
- 35 58 66 28 74 47 33  1 43 22 11 61 29  4 16 13 81  9 36 64  7 40 70 12
-  6 44 41 32  0  3  5 21 38 62 53 63 57 45 82 37 34 10 39 75 71 46 69 25
- 26 56 18 42 68 73 20 14 72 54 76 48]</t>
-  </si>
-  <si>
-    <t>[23 24 22 27 19  3 21 15 13  7  2 16  8  4  0 17 18  5 25  1 14 12  6 10
- 11 26  9 20]</t>
-  </si>
-  <si>
-    <t>[51 23 52 24 50 49 27 19 55  3 32 22 15 31 21  1 13  2 39 37 46  7  8 38
-  0  5 30 33 36  4 17 18 42 29 41 47 12 11 43 10 16 28 35 34  6 25 54  9
- 40 45 14 53 26 48 44 20]</t>
-  </si>
-  <si>
-    <t>[79 51 23 80 52 50 83 24 49 19 78 32 77  3 59 15  2 27 22 31 21 68 61 37
- 13 57 55  7  0 39 70 30 29  1 46  8  5 33 60 36 67  4 56 74 82 43 38 58
- 12 17 64 41 75 65 63 18 11 28 62  6 16 35  9 69 10 34 40 47 42 66 53 76
- 45 73 54 71 14 25 26 48 81 20 72 44]</t>
-  </si>
-  <si>
-    <t>[27 20 24  1  3  2 22 23 10  4  0  6 16 13  5  9 12 21 18  8 26 25 15  7
- 14 19 11 17]</t>
-  </si>
-  <si>
-    <t>[  0  30   2 107  29  27  58  56   1  24  55  28 108  80  35  52  18  34
-  79  87 106  83  75  47 111  69  43   6 105  41   5  57  26  19  92  37
-  63  74  23  16  61  84  15 102  54  60  46  32  91  22  71  51  39   9
-  65 103 104  11  73   8  36  89  88  90  17  93  33   7   4  85  72  13
- 101  96  62  45  66  64  14  86  44  31  99  98  21  50  68  40  10  38
-  59  94  97 109  25  78  12  82   3  76  67  95  81  20  42  70 110  53
-  49  77  48 100]</t>
-  </si>
-  <si>
-    <t>[  0  30   2  29 111 139  58   1  27 163  56  28  88  35  34 120  43 103
- 143  93  18  85  47   6 162  55  24 135  69 161  57 131 107  19 164 167
-  52  71  80  86  41   5 136 108  92  23  54  46  89  74  26  75  60  79
-  22  63  32  91  51  83  37  97 147   9 140  61 144  65 133 148  39   4
- 134 112   8 119  15 121 160  84  11 158  90  17 146 154  16  87  40  33
- 117 149  72  99 113 159  31  82 106 152  64  44 115 165 129  67  73 114
-  13   3 157 150  62  36   7 116 142 122  68 145  59  50  66 124  38 151
- 155 123  81 127 100  12 118  95  10  45  76 153 166  96 110 156 102 137
-  21 101  94 126  25  53 104  42 132  78 138  14 130 105  20  49  48  98
- 109 125 141 128  70  77]</t>
-  </si>
-  <si>
-    <t>[112   0 142   2  30 114 107 141  58  27  56 139  29  83 113   1  28  87
-  80 111  24 136  52 106 147 140  55  35  75 155 146 130 108 164  18 105
-  34  69  57  79 167  43  63  47 158  91 159  19  92 118  60 102   6 103
- 149  84  71 128  26  61  46  37 163  65 117   5  89 144 131  74 138  54
-  88 127  23  64  90  73 129  62  22  32 135 166 101 134  94 153  51  13
- 125  98 104  72  39  41  16  14 123 151  66  86 121  11  93  82   9  96
-   8  31  99  17 120  33  81 150  20  15  68  78   4  67 143  85   7  97
-  36 109 148  50 119  59 116 152 157 145  95 133  10 124 126  40  12  21
- 110 122  77   3 156  76  45 162 115 137  25  38 132  42  44  70 160  49
- 165 154 100  53  48 161]</t>
-  </si>
-  <si>
-    <t>[3.810575  1.0065104 2.646126  0.1152493 0.2404076 0.2331796 0.2933054
- 0.1822216 0.1938934 0.2081865 0.1187342 0.1308103 0.1095981 0.1953279
- 0.1717059 0.2451801 0.3074744 0.1768715 0.8585988 0.5124507 0.1366271
- 0.1334433 0.180725  0.2929047 3.0038709 0.1644545 0.2601682 1.6471957]</t>
-  </si>
-  <si>
-    <t>[5.3131929 1.2090666 2.8111188 0.1019132 0.1542186 0.3316746 0.3185284
- 0.1666229 0.1809994 0.1790221 0.108018  0.1687814 0.1052793 0.1742439
- 0.1198273 0.2379424 0.1667255 0.1104582 0.721117  0.3796215 0.1106195
- 0.1417698 0.2407787 0.3573397 1.5926377 0.0962889 0.2200614 1.6288623
- 0.9861406 1.8051743 4.0974519 0.1395268 0.2816311 0.139629  0.6069153
- 0.7187106 0.1641985 0.2494599 0.1326046 0.2212617 0.126262  0.434263
- 0.0966391 0.4903224 0.159934  0.0904469 0.3947717 0.548506  0.1153841
- 0.0586165 0.0977914 0.4256996 2.023706  0.083991  0.2755402 1.171506 ]</t>
-  </si>
-  <si>
-    <t>[6.6823694 1.8582371 3.3865789 0.0933279 0.1750164 0.393423  0.4931732
- 0.1843593 0.1778555 0.1972779 0.1351312 0.1620638 0.0904831 0.2204149
- 0.0915838 0.1760134 0.2140225 0.1799378 0.6275983 0.3229336 0.1132473
- 0.1287763 0.2059844 0.3139811 1.8419095 0.0957457 0.3135101 2.2771009
- 1.4007684 2.61024   4.4412667 0.177887  0.3280231 0.2163434 0.6541108
- 0.9209042 0.1538009 0.2814849 0.1171458 0.2355984 0.1287654 0.4474032
- 0.0521163 0.6159169 0.1075845 0.0749512 0.4404629 0.4743376 0.052863
- 0.0427516 0.079471  0.252704  1.2807843 0.0671459 0.2751226 1.1950507
- 0.8817209 0.5692539 1.4063766 0.0917473 0.2890924 0.1952614 0.1630601
- 0.4115141 0.1268012 0.159997  0.1132558 0.0886411 0.07612   0.4730986
- 0.058322  0.2979969 0.1684348 0.1508731 0.3197132 0.5447727 0.0926437
- 0.0921359 0.0973596 1.1216125 1.2325598 0.0735524 0.1360016 0.7660596]</t>
-  </si>
-  <si>
-    <t>[0.9066263 1.2232617 3.3958241 0.1125588 0.2551837 0.1422429 0.3266495
- 0.5072462 0.1444753 0.2643768 0.1161249 0.2083884 0.1172212 0.4139398
- 0.1394652 0.659558  0.1666914 0.1087556 0.4052575 0.6719044 0.1101516
- 0.0708934 0.1091979 0.610862  3.099371  0.1459652 0.2793079 1.4101999]</t>
-  </si>
-  <si>
-    <t>[1.4743943 1.7836317 5.713346  0.117373  0.3978384 0.1840966 0.5918693
- 0.7065065 0.1564542 0.3096766 0.1426844 0.2362942 0.1530244 0.5025054
- 0.103767  0.7326022 0.188324  0.0976479 0.3864304 0.641873  0.0912754
- 0.0657287 0.1317726 0.3551296 1.953843  0.1038987 0.3162705 1.7065506
- 1.1777293 0.4800221 1.6265678 0.0971653 0.301855  0.2931179 0.1506429
- 0.2208488 0.1523139 0.2112987 0.093146  0.0945336 0.0929046 0.6123401
- 0.0923415 0.3639904 0.1495101 0.1846172 0.281885  0.6815491 0.1177677
- 0.0718691 0.1161713 1.1257614 2.5300388 0.1617971 0.1739237 1.0370768]</t>
-  </si>
-  <si>
-    <t>[2.1443282 2.5048115 7.6338595 0.127197  0.4883682 0.1465584 0.680875
- 0.7826262 0.1106034 0.235945  0.1233002 0.2137371 0.1133189 0.5461497
- 0.0882607 1.0120529 0.1402365 0.1118947 0.4652878 0.7647606 0.0781465
- 0.0673182 0.0919764 0.3426569 1.6526446 0.0943757 0.3238226 1.7267893
- 1.2105312 0.5856655 1.8800402 0.1070967 0.2787763 0.2423839 0.1069243
- 0.1678233 0.0893728 0.181787  0.1125672 0.0943432 0.0788938 1.0105493
- 0.0556525 0.3682582 0.1399598 0.1553362 0.2495556 0.2229821 0.0794869
- 0.0585384 0.0678678 0.7463429 1.0991857 0.111536  0.1246957 0.9121476
- 0.2000297 0.6849078 0.3812587 0.1806979 0.8560322 0.2522962 0.1531688
- 0.2408442 0.3535817 0.7828623 0.0984675 0.0735728 0.0937808 0.1690041
- 0.0786188 0.1543261 0.0994317 0.0980673 0.102883  1.0957879 0.062763
- 0.1229015 0.1268241 1.7398069 1.0134594 0.0740151 0.0855081 3.2904065]</t>
-  </si>
-  <si>
-    <t>[0.8433808 0.5500632 1.5425518 0.1033764 0.2478457 0.2302847 0.1475503
- 0.211926  0.1137888 0.1479492 0.1279338 0.1435407 0.1379763 0.9595324
- 0.098266  0.5804682 0.2251561 0.1762909 0.2661064 0.7088881 0.1883247
- 0.0826442 0.1205911 1.6145846 3.8213303 0.149349  0.1709044 1.1762423]</t>
-  </si>
-  <si>
-    <t>[1.2454432 0.8594786 2.4521786 0.0942555 0.301801  0.2908045 0.104139
- 0.1520278 0.0853393 0.1488398 0.1147245 0.108265  0.1159051 1.7130534
- 0.0883826 0.7157666 0.2145688 0.1838166 0.4080437 0.3594627 0.1511547
- 0.061684  0.0820179 1.712485  2.0745607 0.1104471 0.1017734 1.2996057
- 0.1468264 0.9030066 0.3858066 0.1353833 0.6463916 0.2490255 0.1776765
- 0.266437  0.3034899 0.6753869 0.1318789 0.1253973 0.0951019 0.2207973
- 0.0710287 0.1546257 0.143756  0.1001776 0.1268927 1.2280655 0.0858803
- 0.1032429 0.0824073 2.2195656 1.2691132 0.090474  0.1132846 3.9229774]</t>
-  </si>
-  <si>
-    <t>[1.8544544 1.0529966 3.2074066 0.0749464 0.3737707 0.3204887 0.1241812
- 0.1335309 0.0703062 0.1475384 0.1330728 0.0963102 0.1026953 2.4029286
- 0.0538382 0.7912216 0.2410694 0.1923227 0.2941877 0.3363602 0.1054757
- 0.0589465 0.0791815 1.2705448 1.7409919 0.1285882 0.1275833 0.8544202
- 0.2127781 1.2366388 0.4927776 0.169535  0.7608384 0.2521104 0.1892134
- 0.2690843 0.2588813 0.9694866 0.1026091 0.0977397 0.069203  0.26285
- 0.0575367 0.2091533 0.1052569 0.0778304 0.1019848 1.0719128 0.1164761
- 0.0579668 0.0919854 1.8363381 0.806959  0.0516911 0.0875978 4.553704
- 0.1377747 0.1805426 0.1181526 0.1492824 0.147182  0.1184901 0.1167434
- 0.1344338 0.661276  0.156986  0.0918122 0.0850945 0.0725684 0.0750083
- 0.0915074 0.2640517 0.0654298 0.0862785 0.0619456 1.1139357 0.0760906
- 0.3186165 0.2484183 2.9214327 0.9289302 0.1139549 0.0698448 3.9844418]</t>
-  </si>
-  <si>
-    <t>[0.2323531 0.8069731 0.9031745 0.1920389 0.560534  0.1747496 0.1726687
- 0.2308371 0.2173209 0.4880526 0.1142668 0.177487  0.1034475 1.0660456
- 0.087768  0.5573616 0.2004044 0.1400062 0.2355041 1.0512113 0.0996221
- 0.1430408 0.1320272 3.0746233 1.8053805 0.1231413 0.1442363 3.4702958]</t>
-  </si>
-  <si>
-    <t>[0.1956357 1.0125481 0.9962926 0.1236813 0.700036  0.21212   0.1689128
- 0.2277362 0.2114818 0.6078934 0.1110207 0.17388   0.0880016 1.4686557
- 0.0453221 0.4465523 0.1845044 0.0937486 0.2403823 0.9014913 0.0736196
- 0.0956827 0.0837933 1.8236361 0.8109565 0.0701817 0.0891089 3.7979831
- 0.0947757 0.176637  0.1968331 0.0959576 0.0978374 0.1034201 0.1359314
- 0.1407462 0.3988401 0.126403  0.0929884 0.0935914 0.0782175 0.0830183
- 0.0726662 0.2770057 0.0881072 0.090825  0.0792998 0.9110543 0.0602373
- 0.3602613 0.2681356 2.6768001 0.9188878 0.0912935 0.0781138 3.9073557]</t>
-  </si>
-  <si>
-    <t>[0.5346141 1.7276096 1.7083285 0.1522464 0.7747505 0.2729093 0.2072962
- 0.2674019 0.2759886 0.7541332 0.1383057 0.1966468 0.0820306 1.2392562
- 0.0667736 0.557463  0.200785  0.1381874 0.2875433 1.2661976 0.0698702
- 0.0766078 0.101292  1.4903234 0.9395245 0.0803864 0.0987306 5.0843194
- 0.1254509 0.2067988 0.2890679 0.1141415 0.1569984 0.1150548 0.1418004
- 0.1335507 0.5801354 0.1875214 0.1042264 0.1265797 0.0990845 0.1093735
- 0.0646384 0.3160604 0.0816375 0.1129721 0.0657012 1.4147412 0.0565884
- 0.2886766 0.1600098 3.3826069 1.2242741 0.0869698 0.0664977 4.6467327
- 0.1255022 0.154114  0.201868  0.6686963 0.1190027 0.1172658 0.0810523
- 0.2660406 0.1333032 0.0931556 0.1346568 0.0885846 0.1215992 0.1017786
- 0.0934603 0.1325056 0.0688953 0.0930482 0.100204  0.1385073 0.0484969
- 0.5244307 1.4500671 3.5191162 1.3556882 0.100499  0.077533  0.6208147]</t>
-  </si>
-  <si>
-    <t>[0.1363682 0.1628314 0.273961  0.1171264 0.1547038 0.1246378 0.1378669
- 0.2126561 0.5063971 0.1693273 0.1013941 0.1483378 0.1121045 0.4134832
- 0.1098477 0.6651553 0.216077  0.1643678 0.2056684 1.2166898 0.1167104
- 0.4174765 0.4142286 4.0789202 2.0079332 0.1813667 0.117987  3.3180517]</t>
-  </si>
-  <si>
-    <t>[0.1149725 0.4170494 0.6719822 0.1371526 0.1549297 0.1461136 0.1437653
- 0.1735501 0.76728   0.1669967 0.103657  0.190112  0.1469521 0.4726353
- 0.0670424 0.5456439 0.2525664 0.2035667 0.1886769 2.1010675 0.104814
- 0.2211387 0.2099345 3.7465981 1.4410223 0.1088197 0.1088004 5.6923318
- 0.2326497 0.1812847 0.392286  0.7604278 0.1256629 0.1997113 0.1214813
- 0.3352778 0.1422643 0.1148275 0.1719055 0.1516939 0.1417311 0.1737661
- 0.1312224 0.253119  0.1520883 0.1233214 0.1668545 0.194342  0.0825618
- 0.644403  1.9612306 5.0322864 2.4585156 0.1403963 0.1095312 1.0232034]</t>
-  </si>
-  <si>
-    <t>[0.1414856 0.2173073 0.901637  0.1374009 0.1927244 0.1370053 0.1524305
- 0.1551429 0.9536046 0.1673148 0.1060821 0.2031454 0.1537114 0.1792717
- 0.0698112 0.5157432 0.1821804 0.3212887 0.0868824 3.0655259 0.0709597
- 0.1339837 0.2041687 4.0413565 1.5140369 0.0984968 0.0904788 5.8954834
- 0.241967  0.1988763 0.3510457 0.7951619 0.1429207 0.2241715 0.1066768
- 0.3011101 0.1606164 0.12129   0.1325647 0.1045604 0.1545032 0.1467283
- 0.0851362 0.213946  0.1516912 0.1265528 0.1026024 0.2253548 0.034333
- 0.5257595 0.6722593 4.680828  1.8913774 0.1302282 0.0526175 1.0300273
- 0.0893189 0.1278398 0.2514944 0.6094101 1.0232694 0.2005656 0.1312021
- 0.1295747 0.1593367 0.4251381 0.2484272 0.315175  0.0846124 0.1009026
- 0.1537643 0.103905  0.0654836 0.0821417 0.2369737 0.1040506 0.0430508
- 2.0758998 2.4196932 6.7363606 3.0315511 0.1712306 0.1249669 0.5918458]</t>
-  </si>
-  <si>
-    <t>[0.1995359 0.172092  0.2583014 0.5633767 0.2002034 0.1816854 0.1586364
- 0.2926473 0.2026525 0.1146016 0.1543096 0.1537889 0.1591027 0.3411955
- 0.166087  0.4786958 0.206846  0.1859234 0.1839519 0.7308869 0.0934307
- 0.5542506 1.3621841 5.737631  3.6427857 0.1800304 0.1177662 1.0706593]</t>
-  </si>
-  <si>
-    <t>[0.2065    0.3717391 0.3164199 0.7135039 0.1941849 0.2020352 0.1166475
- 0.2630785 0.2564546 0.1104149 0.1463665 0.1623292 0.1661376 0.3298571
- 0.0966532 0.4727305 0.1419318 0.1899793 0.1889308 1.0921535 0.0496047
- 0.3973322 0.618696  4.9834125 2.312677  0.1122792 0.0732229 1.1171706
- 0.1373866 0.1785827 0.201595  0.4101441 0.7080304 0.2004342 0.1323288
- 0.1324509 0.1994755 0.2738009 0.2158537 0.3067518 0.1033904 0.1707709
- 0.1845686 0.1471554 0.064812  0.1016615 0.2671501 0.1666348 0.0690781
- 1.5715495 1.6846886 6.0400109 3.7630417 0.0927235 0.1106153 0.7387451]</t>
-  </si>
-  <si>
-    <t>[0.272     0.2227058 0.6196042 0.7937412 0.1873228 0.2203854 0.1335781
- 0.2746945 0.2214498 0.1304032 0.1204159 0.1401932 0.1656411 0.315659
- 0.0698893 0.6243893 0.1335414 0.161953  0.1411773 1.4379433 0.0444623
- 0.4277    0.5194064 4.747423  1.6346942 0.0673413 0.0663137 0.538115
- 0.1344355 0.2299049 0.2443002 0.4753968 0.8296183 0.2152954 0.1105745
- 0.1329803 0.1959828 0.3266698 0.1713086 0.2571848 0.1082022 0.1575733
- 0.101452  0.1724074 0.0340962 0.0814425 0.2225629 0.103914  0.0506275
- 1.5839936 1.8230327 5.4016172 2.3130784 0.0965235 0.0795423 0.3027974
- 0.1817025 0.3139849 0.1702131 0.787302  0.1961594 0.3636498 0.1342934
- 0.1488932 0.1600035 0.1495067 0.0971268 0.1881406 0.3997052 0.1273385
- 0.248619  0.0738725 0.0439224 0.0797358 0.1769437 0.1529563 0.0915841
- 0.8165144 0.9222397 6.1536495 2.6971191 0.0494863 0.1769416 1.6682339]</t>
-  </si>
-  <si>
-    <t>[0.2443128 1.3434262 0.5246469 1.2259959 0.291367  0.1988986 0.2151809
- 0.1428571 0.1611402 0.1910778 0.3424843 0.1342867 0.1874144 0.2112935
- 0.1428325 0.1506305 0.2137707 0.1307677 0.1638584 0.1345288 2.059113
- 0.1649831 0.4962716 0.4047155 1.4171738 0.1559286 0.1604948 5.7395739]</t>
-  </si>
-  <si>
-    <t>[8.7827649 1.5415044 5.6512856 0.0838691 0.1437391 0.4037885 0.5362838
- 0.1447064 0.1637369 0.2053161 0.1085292 0.168584  0.0887776 0.1331826
- 0.1221483 0.2595521 0.2740172 0.1547199 0.8185538 0.3093228 0.0721488
- 0.1115171 0.2291519 0.2755643 1.3714749 0.0919343 0.3179573 2.010613
- 1.1909071 2.3172911 6.2040025 0.1134426 0.2477219 0.1485997 0.8040593
- 1.0162102 0.1599924 0.2947891 0.1071693 0.2070798 0.1085696 0.470708
- 0.0695528 0.5558857 0.114247  0.1273115 0.2541195 0.6191989 0.0474019
- 0.0548438 0.1102383 0.2144519 0.9872873 0.0565771 0.2564224 1.2743666
- 1.5823045 0.3346731 1.7282301 0.1038985 0.2563611 0.2726001 0.1310786
- 0.2907456 0.126542  0.180235  0.1267406 0.0809062 0.1098103 0.5708188
- 0.0593584 0.2176074 0.1347759 0.1674919 0.282357  0.6204803 0.0821542
- 0.0532434 0.0899306 0.7945305 1.0997524 0.075258  0.0857718 0.6441149
- 0.2660599 0.1398872 0.1195839 0.7711166 0.1581935 0.1594782 0.1576165
- 0.2316008 0.2995684 0.1505161 0.1014997 0.0781256 0.1312969 0.0974745
- 0.1124647 0.1127522 0.0419364 0.1326598 0.2586135 0.1788245 0.1738182
- 0.5115724 0.6619282 2.7642374 1.1700528 0.096229  0.0590158 0.6005325]</t>
-  </si>
-  <si>
-    <t>[13.6729184  2.2799455  6.8318448  0.1161784  0.1811603  0.4041174
-  0.9013404  0.1083882  0.1770221  0.2225962  0.0773849  0.1590735
-  0.0815375  0.1166273  0.0534643  0.1716046  0.1507844  0.1529537
-  0.9348215  0.5195084  0.0499953  0.0672404  0.288847   0.3431951
-  0.8251745  0.0643604  0.3175685  2.0347437  1.7127222  4.8889329
- 11.0029729  0.124941   0.258859   0.1466607  1.1543791  1.2460669
-  0.1088807  0.2355415  0.0965232  0.1897506  0.1470595  0.4292215
-  0.0568721  1.0503488  0.119407   0.0760187  0.3376447  0.9043081
-  0.0475784  0.0489435  0.0997511  0.2511293  0.4484721  0.0642161
-  0.3430128  0.8369295  1.9075536  0.6654263  2.439846   0.1010053
-  0.2966218  0.2017434  0.1102698  0.2598408  0.1205126  0.1988393
-  0.0977964  0.117507   0.102776   0.7988901  0.0356662  0.4405723
-  0.1326911  0.1168743  0.3338618  0.3163364  0.0746621  0.0349779
-  0.0548874  0.2900343  0.4382651  0.0848217  0.1236363  0.2380713
-  0.1597229  0.9183636  0.4348193  0.1494236  1.3267255  0.3347776
-  0.1569175  0.255351   0.3765138  0.9382535  0.0664784  0.0790681
-  0.0722036  0.2308818  0.0451351  0.1321421  0.0830194  0.0666314
-  0.0688893  0.9861647  0.0620747  0.0520169  0.1232409  0.5282759
-  0.3824859  0.045002   0.0712157  3.4636821  0.1780794  0.1320137
-  0.1168691  0.1191462  0.1076742  0.1372126  0.0811661  0.1730825
-  1.096749   0.1668605  0.1045194  0.0876339  0.096659   0.0425853
-  0.0664478  0.0836969  0.0418236  0.1179734  0.0523573  0.6594799
-  0.0565742  0.1940696  0.1804902  0.8150673  0.3836433  0.0687491
-  0.0548543  2.8287263  0.2049899  0.0425784  0.1061779  0.9822494
-  0.1999645  0.1025751  0.1517202  0.2307105  0.1928081  0.1341539
-  0.1139198  0.0959113  0.1212059  0.0741291  0.150954   0.0940289
-  0.0690197  0.1146013  0.1589071  0.1299413  0.1650274  0.6858028
-  0.894208   2.0165608  0.5147501  0.1184139  0.07264    0.4883872]</t>
-  </si>
-  <si>
-    <t>[6.1973494 1.2557761 4.5514569 0.0743279 0.1098409 0.2551404 0.3381837
- 0.1074786 0.1281932 0.1291937 0.088271  0.1310109 0.0776352 0.1714481
- 0.1540546 0.1126577 0.1568872 0.1229323 0.5910943 0.3888235 0.1136815
- 0.0772867 0.1919665 0.219994  0.9868298 0.066089  0.2874605 2.0171741
- 1.2087408 1.6672975 4.543741  0.1273922 0.1876738 0.1211729 0.5516977
- 0.6900937 0.1009106 0.2759798 0.0635562 0.1590646 0.0800364 0.1579924
- 0.0622552 0.5119098 0.0601078 0.0703582 0.2773041 0.4556079 0.0387129
- 0.0505733 0.096034  0.1720829 0.8401204 0.0435185 0.23197   0.7393261
- 1.9046289 0.5360738 2.3596956 0.095411  0.3622406 0.2800026 0.1975965
- 0.4831415 0.2196278 0.2697453 0.1385443 0.1098163 0.1112578 0.5388792
- 0.0599322 0.2945448 0.163362  0.2112072 0.2358719 0.67621   0.0721494
- 0.0756903 0.109877  0.5266844 1.0107214 0.1191608 0.1292353 1.4139894
- 0.2978841 0.1096948 0.1378448 1.1587739 0.227998  0.2546404 0.2184503
- 0.4094101 0.3812999 0.1308794 0.1732599 0.0909568 0.1282733 0.1046108
- 0.1690285 0.1247778 0.0453679 0.1828656 0.3492544 0.3335806 0.1665812
- 0.5878171 0.7868321 3.7025707 0.6096963 0.0969983 0.0759308 1.0011568
- 6.4171225 1.361669  3.8784472 0.0677031 0.0948119 0.2690265 0.3699245
- 0.0955083 0.1228492 0.1337985 0.075731  0.1446132 0.0848897 0.1696572
- 0.0839844 0.2205974 0.2935133 0.1989298 0.6177487 0.238947  0.0626796
- 0.0885268 0.1809693 0.1864925 0.852023  0.0671544 0.2330789 1.8064677
- 0.7640622 2.9032521 4.7612527 0.1097177 0.2459835 0.0924584 0.62835
- 0.7777144 0.0969402 0.3274801 0.1138166 0.1408966 0.094251  0.1726489
- 0.0475418 0.6368609 0.0736839 0.0940187 0.4234588 0.4051738 0.0562708
- 0.034659  0.0696197 0.275606  0.6045642 0.048272  0.1837824 0.5194783]</t>
+    <t>[55 27 51 23 52 13  2 19 24 47  1  4  9 49 15 36 50 43 18 30  0  8  7  5
+  6 16 35 29 17  3 11 37 32 28 39 31 22 46 10 34 53 45 26 38 41 21 33 20
+ 25 40 12 42 44 48 54 14]</t>
+  </si>
+  <si>
+    <t>[55 27 79 51 23  1  2 52 78 19 80 47 13  4  9 24 77 36 59 15 83 43  0  7
+  5 58  8 30 63 16 49  6 18 29 71  3 11 75 17 28 35 50 37 10 56 32 61 60
+ 31 66 22 64 45 33 57 68 73 67 26 81 53 70 62 72 40 39 12 41 34 38 74 65
+ 48 44 21 69 25 82 20 54 14 46 76 42]</t>
+  </si>
+  <si>
+    <t>[23 27 24 19 15  8 21 22 13  2 16  1  7 25  9 18 17 11  4  6  5  3 20 14
+ 12  0 10 26]</t>
+  </si>
+  <si>
+    <t>[27 51 23 52 19 24 50 55  8  2 31 49 15 13 35 29 43 21 22 28 30 16 47 32
+ 44  4  1 33  9 41 17  7 38  5 46 11 40  6 53 12 39 18 36 25 37 10 54 34
+ 42  0  3 45 48 20 26 14]</t>
+  </si>
+  <si>
+    <t>[27 79 51 23 19 80 78 77 52 24 31  8 55  2 60 50 59 15 83 49 30 65 58 67
+  1 35 66 21 28 74 61 16 33 17 29  9  7 22 47 63 11 36 43 70  6 44 13 64
+  3 40  5 12 56 10  4 41 46 39  0 81 62 37 45 34 32 38 69 53 71 82 18 25
+ 26 54 68 75 20 73 42 57 72 76 48 14]</t>
+  </si>
+  <si>
+    <t>[23 24 22 27 19  3 21 15 13  7  2  0  8 17 18  1  4  5 16  6 12 25 10 14
+ 11  9 20 26]</t>
+  </si>
+  <si>
+    <t>[51 23 52 24 50 19 49 27 32  3 22 55 31 15 21 13 37 39  2  7  0  8  5  1
+ 33 46 38 36  4 30 17 11 42 28 41 29 12 16 34 43 10 35  6 47  9 18 25 40
+ 45 14 54 53 44 26 48 20]</t>
+  </si>
+  <si>
+    <t>[79 51 23 80 52 83 50 24 19 49 78 32 77 59  3 22 55 27 15 31 21 13 57  2
+ 61 68  7 37 39 30  0  8 60 70  1  4 33 67 17 82 46 36 11 56  5 38 12 64
+ 74 63 41 58 75 18 47 10  9 34 65 69  6 16 28 42 29 62 35 73 40 43 66 45
+ 76 54 26 14 25 71 53 44 20 81 48 72]</t>
+  </si>
+  <si>
+    <t>[27 20 24  1  3  2 23 22 10  4  0  6  5 12 13  9 16 21 18 26 14 25 17  7
+  8 15 11 19]</t>
+  </si>
+  <si>
+    <t>[  0  30   2  29 107  27   1  58  28  56  24  52  55  35  79 108  80  83
+  87  34  18  43  47 106  75  69   6  32 105 111  19  41  46  51  57  71
+   5  26  22  23  37  63 102  16  74  39  91  92  54  61   9  84  60  15
+  31  89 103   7  90   8  11 101  14  64  88  36  65  72 104  62  85  98
+  44  73  17  40  94  50  93  33  13  21   4  38  86  66  10  99  82  59
+  96  45   3  20  68  97 109  25  12  76  81 110  78  53  67  77  95  49
+  48 100  42  70]</t>
+  </si>
+  <si>
+    <t>[  0  30   2  27  29 111 163 139   1  28  58  56  85  88  34  35 120 135
+  83  43  93  24 143 103  69  18 162 136  47  79  80 131 107 164  55   6
+ 161  41 167   5  19  51  46  92  26  52  23  71  54  37  74 147  16  91
+   9  61  15  32  63  89  57 134  75  22  97 140  87 133  90  13  11 148
+ 146 155 158  39  17 141 116   8  65 112 115   4 119  36  60   7 121 129
+  44  45  72  66  73  31 122  99  40 145 113  14 154 106  64 157  84  38
+ 160 101 142  86 117 159 124 149 144  33  59 114 150  67  82  78 102 152
+  94 118  62  50   3  21  25 123 127 137  96 100  12  98 151 125 110  10
+  81  68  48 138 105 165  49 132  95  70 166  20 109 126 156  53 130 128
+ 108  42  77 104 153  76]</t>
+  </si>
+  <si>
+    <t>[  0 112 142  30 107   2 114 139  29  56  27 141  58   1 167 136  87 113
+  55 140  52  24  80 108 106  79  28  18 105  83  75 147  34  35 130 164
+ 146  69  63  57 155  47 111  43  60 159  74  91  46 102  92  84 118  61
+   6 153 131 117  41  71   5 103  23  37 127  19 101 138  89  65 149  86
+  72 158  64  32  51  26 144  90 134 128 166  22  54  73   9  88 104  82
+  62  39  17  16  40  94  96  15 151   8  85  93 135  11  14  36 133 145
+  66  97  98  67 129 123  44   4  99  95 120 143 116  78  10 122  59   7
+  76 121 119 109  45 124  50  13  33 148  31 152 150 125  21  38  70 156
+  68  25 110 163  77 132 126 137 160   3  81  48  53  12 100  20 161 162
+ 115 165  49 157  42 154]</t>
+  </si>
+  <si>
+    <t>[3.3373011 0.9880121 2.4124887 0.1241046 0.1956519 0.2297027 0.3465116
+ 0.1790967 0.2023368 0.1780159 0.1125971 0.1447101 0.1188144 0.1778425
+ 0.1973528 0.2355737 0.3166973 0.1552645 0.8340322 0.4800872 0.1320329
+ 0.1313949 0.1600402 0.3079215 3.032231  0.1578676 0.2181681 1.9457666]</t>
+  </si>
+  <si>
+    <t>[4.588773  0.9297395 2.1827886 0.093763  0.1229802 0.2928217 0.3231903
+ 0.13365   0.1712091 0.1790442 0.0807074 0.1342127 0.0826689 0.1788328
+ 0.0988307 0.2359246 0.1955473 0.1283258 0.5050615 0.3327165 0.1038686
+ 0.1169962 0.146744  0.2428212 1.5565147 0.0749073 0.2559976 1.9354874
+ 0.6736057 2.0077225 2.8496881 0.1342874 0.2623195 0.1242661 0.390164
+ 0.5651836 0.1451316 0.2255291 0.1018357 0.1876547 0.1093882 0.2780288
+ 0.0600687 0.5163449 0.1628884 0.0968302 0.2549222 0.492211  0.0811254
+ 0.0585953 0.0790813 0.2701785 1.6185425 0.0754524 0.2130241 0.9358094]</t>
+  </si>
+  <si>
+    <t>[6.3063816 1.4278913 3.2574486 0.0884221 0.155539  0.3285298 0.419177
+ 0.1454098 0.1756244 0.1883105 0.1174434 0.1385217 0.0805392 0.1777202
+ 0.1247662 0.2596123 0.1473018 0.1380929 0.5967845 0.3514329 0.1043155
+ 0.0860096 0.1904526 0.3057076 1.3133697 0.0876897 0.2740922 2.0710441
+ 0.9546781 2.1570041 3.9950815 0.1512294 0.287172  0.1291226 0.5031739
+ 0.7862244 0.126651  0.2799888 0.1026628 0.206097  0.1141493 0.3333792
+ 0.0408202 0.418641  0.1311927 0.0597825 0.2900908 0.475787  0.0420702
+ 0.047176  0.1060303 0.1529811 0.8425037 0.0616813 0.241112  0.8634834
+ 1.0584601 0.3419404 0.9907584 0.0947908 0.1437441 0.1774799 0.1361392
+ 0.2784831 0.1402037 0.1657494 0.0882932 0.074822  0.0626013 0.5209542
+ 0.071836  0.2509292 0.1439886 0.1888844 0.1933488 0.4519355 0.0644903
+ 0.0751595 0.091733  0.6316494 1.3833759 0.0803831 0.1091044 1.0112401]</t>
+  </si>
+  <si>
+    <t>[0.701628  0.9469488 3.3950351 0.1025461 0.2874888 0.1207309 0.3849901
+ 0.4431114 0.1214093 0.2032973 0.1038886 0.1828524 0.1323976 0.3689775
+ 0.108744  0.6379075 0.1639282 0.0999499 0.357684  0.5473083 0.0963365
+ 0.0681835 0.1036471 0.5354591 2.8000578 0.1171621 0.2462846 1.275387 ]</t>
+  </si>
+  <si>
+    <t>[1.3645697 1.6502617 5.083874  0.1269569 0.3040282 0.1599293 0.7875486
+ 0.6793467 0.1292444 0.3192375 0.1283281 0.2282809 0.1525739 0.5619491
+ 0.094106  0.7773727 0.1491029 0.1097337 0.392581  0.6257264 0.0841885
+ 0.080289  0.1398466 0.4703774 2.581452  0.122333  0.315431  1.5063077
+ 1.5251542 0.4665731 1.5006781 0.0901575 0.3433752 0.2753356 0.1282239
+ 0.2295513 0.1591598 0.2047541 0.1168576 0.0948015 0.1008397 0.6255306
+ 0.0806219 0.3141047 0.1582059 0.1501759 0.2991707 0.563632  0.1234775
+ 0.0851431 0.1210831 1.5707021 2.1744023 0.1283874 0.1418438 1.4218797]</t>
+  </si>
+  <si>
+    <t>[1.7932484 2.6444604 6.6706637 0.0952319 0.2495229 0.1310387 0.6254472
+ 0.6758197 0.1154875 0.2338701 0.1029012 0.2159214 0.1107091 0.6223896
+ 0.0826631 0.8736127 0.1003717 0.1025702 0.5579871 0.7810227 0.0759166
+ 0.0586162 0.1118432 0.3515706 1.6179141 0.0783358 0.2828786 1.0985415
+ 1.2659696 0.5593862 1.6806022 0.0909223 0.2063299 0.2320177 0.0850528
+ 0.1524577 0.0927035 0.1572054 0.1104181 0.0685523 0.0964919 0.8589828
+ 0.0440238 0.3427265 0.1451455 0.1002016 0.2712782 0.2487439 0.0805892
+ 0.0459329 0.0692016 0.9919944 1.4337613 0.1217246 0.1357127 0.9057785
+ 0.1695437 0.8153285 0.171276  0.1818749 0.8148331 0.2369805 0.1939196
+ 0.1964197 0.2939679 0.677595  0.1015096 0.073328  0.0901854 0.1687526
+ 0.0603279 0.2535358 0.0789729 0.0765249 0.1277922 0.9428283 0.0953975
+ 0.1369913 0.0926184 1.8610107 0.7933699 0.0895752 0.0737696 3.3715733]</t>
+  </si>
+  <si>
+    <t>[0.755964  0.458042  1.4671992 0.0920464 0.1881099 0.2097377 0.1549259
+ 0.1803273 0.1081058 0.1585393 0.1099368 0.1353244 0.1366679 0.8669419
+ 0.0912788 0.5515999 0.2081548 0.1672764 0.2735304 0.6237297 0.1309478
+ 0.0741124 0.0989227 1.6540124 3.5874773 0.139858  0.1525868 1.018488 ]</t>
+  </si>
+  <si>
+    <t>[1.6266255 0.6630815 2.4074854 0.1139299 0.4322524 0.2693012 0.1231429
+ 0.1474457 0.0754008 0.1740877 0.1348284 0.0927049 0.107072  1.6611036
+ 0.0907573 0.6142793 0.2711665 0.2100414 0.3010699 0.3437266 0.1205031
+ 0.0658507 0.0847214 1.3785783 2.3596402 0.1047692 0.1447414 0.8863481
+ 0.1822116 0.9505538 0.5212169 0.152553  0.7108479 0.2173775 0.2151134
+ 0.2648558 0.3332918 0.7437576 0.1177677 0.1454854 0.0911699 0.3082287
+ 0.0755002 0.2971882 0.1665348 0.1036221 0.1147613 1.2413565 0.0955293
+ 0.1017996 0.1385446 2.6802195 1.5558858 0.0942535 0.1000404 3.4449251]</t>
+  </si>
+  <si>
+    <t>[2.2196113 1.063268  4.0604372 0.1125448 0.386826  0.3565831 0.1441325
+ 0.1848964 0.0761171 0.1824923 0.1235708 0.1012845 0.1123098 2.0573575
+ 0.0810942 0.8442646 0.2408253 0.2188042 0.4468807 0.4301922 0.1611909
+ 0.0761655 0.0714786 1.5031253 1.4812124 0.1434589 0.1712165 0.9893775
+ 0.298785  1.3268246 0.8258884 0.1462255 0.9173454 0.334876  0.2265462
+ 0.2715345 0.299177  0.9333275 0.112415  0.1171883 0.086769  0.3123456
+ 0.054306  0.2274    0.1094054 0.0886983 0.1890943 1.0820677 0.0682933
+ 0.1350456 0.1084408 2.0102254 1.1249788 0.0689801 0.0939031 4.620213
+ 0.1612129 0.139201  0.2401164 0.1600354 0.1347443 0.1017817 0.1484905
+ 0.1806203 0.7634468 0.1889406 0.1238336 0.1045501 0.0922575 0.1260297
+ 0.0875784 0.315892  0.1058702 0.1538835 0.081175  1.1308353 0.0769581
+ 0.3564062 0.2491068 2.6807222 1.1247144 0.0956018 0.0680383 4.5403078]</t>
+  </si>
+  <si>
+    <t>[0.1789592 0.7727988 0.8933686 0.1714524 0.4724372 0.1657767 0.1507735
+ 0.2140115 0.2234865 0.4952973 0.1046124 0.168738  0.1012641 0.9807891
+ 0.0876699 0.4297626 0.1852359 0.1852734 0.2372636 1.0233796 0.0926685
+ 0.1556137 0.1256523 2.7779794 1.8406512 0.1233459 0.1260522 3.1947337]</t>
+  </si>
+  <si>
+    <t>[0.2484562 0.8851299 1.1315291 0.1502332 0.8329817 0.2162951 0.1934816
+ 0.2235682 0.2349286 0.663888  0.1097962 0.1390675 0.0720025 1.1933458
+ 0.0549743 0.4315489 0.1868602 0.164148  0.3055728 1.0090255 0.0794245
+ 0.0938902 0.1132502 1.5911821 1.0032908 0.0776014 0.0994184 3.2631938
+ 0.1240326 0.1650009 0.2502462 0.1153482 0.1269917 0.0896436 0.1094366
+ 0.1719276 0.4231425 0.1314998 0.0976602 0.1186013 0.0750191 0.0955945
+ 0.0706255 0.3079973 0.0685264 0.1038143 0.111808  0.9295903 0.0610285
+ 0.4385511 0.3393315 2.7368442 1.3193374 0.1092377 0.0578493 4.3432406]</t>
+  </si>
+  <si>
+    <t>[0.4317468 2.0389409 2.0097324 0.1973238 1.2686318 0.3567301 0.2518685
+ 0.369541  0.3155733 1.0641222 0.1610158 0.1935303 0.1034195 1.5908177
+ 0.0758349 0.6626022 0.2848054 0.1912205 0.2404453 1.7066391 0.0833373
+ 0.0880822 0.1424529 2.1503236 1.0297757 0.0859689 0.1259753 5.3292426
+ 0.1834761 0.23961   0.314039  0.1499255 0.1582007 0.1366414 0.0969443
+ 0.1811062 0.6761234 0.165474  0.0967737 0.1035374 0.1046575 0.0979572
+ 0.0620081 0.4733372 0.0907015 0.1374589 0.0723033 1.5967074 0.0918667
+ 0.2818049 0.1663023 3.1853386 1.8371051 0.1184026 0.0758615 6.1587158
+ 0.1596225 0.1359803 0.3211556 0.6681675 0.1572524 0.1581119 0.1142375
+ 0.2883942 0.1407757 0.0953958 0.1466823 0.1272418 0.1310903 0.0869553
+ 0.1160468 0.2079962 0.1073294 0.1292447 0.0964783 0.1923214 0.0666538
+ 0.9179705 1.8268274 5.090948  1.607285  0.1185207 0.0834031 0.4845365]</t>
+  </si>
+  <si>
+    <t>[0.1035593 0.1958131 0.3377684 0.1152885 0.1373882 0.117212  0.1290191
+ 0.1878579 0.4432335 0.1615201 0.0986922 0.1508037 0.1040159 0.3577132
+ 0.1078917 0.6012109 0.2110517 0.1552929 0.1609008 1.0775874 0.1122128
+ 0.4350258 0.3600768 3.6202278 2.1827864 0.1705693 0.093148  2.9441489]</t>
+  </si>
+  <si>
+    <t>[0.1085704 0.1876894 0.6465599 0.1041413 0.1898298 0.1474944 0.1353966
+ 0.1634218 0.6620731 0.174735  0.1173494 0.1424936 0.1311125 0.3412477
+ 0.0612189 0.4933703 0.2219431 0.1695817 0.1233678 2.0864229 0.0816624
+ 0.2551514 0.2509732 3.6908913 1.7544926 0.119616  0.0759718 4.9409453
+ 0.2303048 0.2754633 0.2253122 0.6032424 0.19326   0.1848913 0.1147389
+ 0.3074361 0.122188  0.1188186 0.1505304 0.1254063 0.1418392 0.1719967
+ 0.1132419 0.2592584 0.1917926 0.0976226 0.1444075 0.2194687 0.0920778
+ 0.5589448 1.7363854 4.7028765 2.1251571 0.1334445 0.1167771 1.0174281]</t>
+  </si>
+  <si>
+    <t>[0.1249581 0.2788478 0.7778477 0.1447767 0.1324773 0.1384381 0.1510854
+ 0.1800643 0.8731005 0.1813256 0.1328289 0.1599132 0.1365582 0.1471027
+ 0.054114  0.4520402 0.2060317 0.2002497 0.1020535 3.3145163 0.0728133
+ 0.2459229 0.1728841 4.0779291 1.6005074 0.0996715 0.0947086 6.3439792
+ 0.2311803 0.1816858 0.3645275 0.8822503 0.1088473 0.202397  0.1109651
+ 0.2768114 0.1587892 0.1194321 0.1085223 0.1265254 0.1412319 0.1296653
+ 0.0692082 0.1562809 0.1491716 0.1160654 0.1272351 0.1715624 0.0577924
+ 0.4379056 0.6007932 4.5806334 1.7153083 0.105652  0.085659  0.8074189
+ 0.1344593 0.0646557 0.3062291 0.5738544 0.7697865 0.228143  0.12061
+ 0.1680276 0.1463089 0.3490837 0.2530017 0.282089  0.0823879 0.1066031
+ 0.1514073 0.1049641 0.0620724 0.0708646 0.2286496 0.0773487 0.0608892
+ 2.0811572 2.5285321 5.92323   2.8298207 0.1237451 0.1028783 0.4424206]</t>
+  </si>
+  <si>
+    <t>[0.2018848 0.1834829 0.2594241 0.6046494 0.1767289 0.1739229 0.1642421
+ 0.2902461 0.1989156 0.1014352 0.1470082 0.1416263 0.1561718 0.3439067
+ 0.1417454 0.4921048 0.1734736 0.1946422 0.1934829 0.7806058 0.0994385
+ 0.5263829 1.2768309 5.7463987 3.0156979 0.154058  0.0971741 1.013005 ]</t>
+  </si>
+  <si>
+    <t>[0.2432257 0.2233723 0.2573835 0.7357046 0.1922057 0.2356677 0.1292348
+ 0.2440499 0.2363732 0.1271254 0.1376374 0.1703812 0.1621842 0.3632912
+ 0.1061509 0.4480795 0.1600934 0.1837007 0.1255557 1.4835054 0.0602536
+ 0.4138004 0.6333505 5.3325092 3.1873925 0.1154528 0.0732229 0.9326332
+ 0.1640599 0.1622165 0.1905832 0.5154347 0.8023542 0.2145427 0.1501633
+ 0.1300476 0.1929834 0.2968359 0.2117506 0.2701754 0.1150042 0.1629859
+ 0.1691794 0.1414782 0.0823212 0.1142551 0.2142402 0.1283014 0.0701288
+ 1.466962  1.8004588 6.9045983 3.4094056 0.0938106 0.1048213 0.5585569]</t>
+  </si>
+  <si>
+    <t>[0.2650978 0.23999   0.3397677 0.6986406 0.2270721 0.1778241 0.1261113
+ 0.3118905 0.2539945 0.1329741 0.1352446 0.1865048 0.1737696 0.3826585
+ 0.0726511 0.4674109 0.1223659 0.2045654 0.1390709 1.4750684 0.0507738
+ 0.4254226 0.686219  5.4906419 1.7509682 0.0699012 0.0751052 0.5811433
+ 0.1199083 0.1145593 0.2919361 0.4315922 0.8569569 0.2200735 0.1318602
+ 0.112578  0.194954  0.2973337 0.17469   0.2965087 0.0922553 0.1527317
+ 0.117409  0.0919307 0.0531041 0.0824942 0.2018187 0.1365974 0.0414511
+ 1.3256328 1.8914399 5.639533  2.0990374 0.0606621 0.0778221 0.6012492
+ 0.1822631 0.3548456 0.1466198 0.792907  0.2470218 0.3290666 0.1139444
+ 0.1619356 0.1724218 0.1264206 0.0911062 0.2054205 0.3181396 0.1263075
+ 0.2430939 0.0673971 0.0405629 0.0983364 0.1649656 0.1391006 0.0819223
+ 0.8318774 1.0530025 6.536858  2.2931527 0.0498932 0.2044781 2.0696181]</t>
+  </si>
+  <si>
+    <t>[0.2898005 1.3008378 0.5637255 1.2420569 0.311181  0.2562585 0.2574914
+ 0.149898  0.1486163 0.1896792 0.344139  0.1364909 0.22558   0.2138785
+ 0.1672694 0.1452056 0.1882549 0.1514128 0.1859451 0.1327176 2.2658606
+ 0.1873811 0.4506935 0.4839931 2.0678762 0.1595035 0.1755619 5.9620281]</t>
+  </si>
+  <si>
+    <t>[8.516794  1.9736426 4.0654181 0.0854235 0.1071531 0.3163664 0.4880442
+ 0.167998  0.1488237 0.2162686 0.0954196 0.1465861 0.0753845 0.1110894
+ 0.1433484 0.1735675 0.263241  0.1154663 0.6311073 0.3573408 0.0789418
+ 0.1088914 0.2835181 0.2783457 1.0217598 0.0758257 0.2926021 1.9773815
+ 1.3525507 2.4983255 6.1502018 0.1729563 0.4500028 0.1119909 0.6596404
+ 0.8787499 0.1301109 0.2740238 0.0994631 0.250242  0.1153788 0.3450687
+ 0.0474655 0.6256058 0.1174531 0.0856937 0.3412371 0.5803    0.0500592
+ 0.050777  0.1149019 0.3294675 0.8981599 0.0646324 0.2281959 0.8950701
+ 1.2641685 0.3228073 1.8033307 0.0883591 0.1842554 0.2179417 0.1201578
+ 0.2714936 0.1419198 0.1236732 0.0954999 0.0613476 0.0789191 0.5206283
+ 0.045753  0.3164724 0.1219312 0.1163478 0.2536715 0.5366796 0.075314
+ 0.0597634 0.0671944 0.8273887 0.7455366 0.0742619 0.091997  0.7163966
+ 0.2114321 0.1201454 0.0967359 0.662807  0.140798  0.1724707 0.1641636
+ 0.2493969 0.2431352 0.1140569 0.1153497 0.0590679 0.0862148 0.0775617
+ 0.1185677 0.0933682 0.048821  0.144554  0.2662351 0.1686807 0.1212276
+ 0.4493359 0.5582288 2.1240002 0.766507  0.0759794 0.0712224 0.4492633]</t>
+  </si>
+  <si>
+    <t>[12.6821366  2.3519663  7.7032506  0.0772069  0.1514076  0.4506877
+  0.5132847  0.139451   0.1565709  0.2569586  0.0636313  0.1720648
+  0.0672111  0.1731339  0.1112227  0.2454261  0.2643576  0.162531
+  0.7179837  0.4491153  0.0512107  0.0758159  0.2024215  0.3401003
+  0.8790916  0.0740045  0.3904708  3.6352735  1.9615149  3.2697352
+  8.0014121  0.1175974  0.2316024  0.0937028  1.2456022  1.0290592
+  0.1486482  0.2814967  0.1018347  0.1626196  0.1136899  0.4975962
+  0.0407012  0.9069959  0.1267161  0.1222367  0.4062223  0.6942845
+  0.0632221  0.0592514  0.0776441  0.4078352  0.3566028  0.0437901
+  0.3287516  0.5535867  1.5658868  0.2187297  1.7870565  0.0927188
+  0.148235   0.2503407  0.0783409  0.2313799  0.1049514  0.155706
+  0.1181139  0.0856751  0.0633286  0.7428343  0.0559573  0.3296222
+  0.1203527  0.1177731  0.2709883  0.2139872  0.0325023  0.0398115
+  0.0824385  0.6938317  0.6741074  0.0633969  0.0826587  0.993944
+  0.1039697  1.467186   0.0974065  0.1925129  1.3761551  0.2221937
+  0.1858054  0.2617076  0.4047674  0.8850792  0.0793003  0.0562162
+  0.0709694  0.2009626  0.066609   0.1155869  0.0687717  0.0984972
+  0.0815112  0.8016175  0.0365233  0.0618302  0.1065111  0.6112166
+  0.0410802  0.0489982  0.0641385  2.8604506  0.1555019  0.111409
+  0.0912349  0.1527336  0.1586766  0.0972613  0.0786617  0.1508155
+  1.0095935  0.1347181  0.1158403  0.0739669  0.0966565  0.0646128
+  0.047221   0.0733764  0.0414538  0.1328171  0.0424802  0.6729691
+  0.0589788  0.1910878  0.2146874  1.0028844  0.6962264  0.0718379
+  0.06294    2.354545   0.1982943  0.1602048  0.09778    0.8133769
+  0.0938445  0.1133575  0.1684446  0.2654155  0.1700317  0.0965107
+  0.0905878  0.065701   0.0814458  0.0360535  0.1076405  0.1650019
+  0.0438719  0.1045793  0.1644005  0.096721   0.101262   0.4986354
+  0.717169   2.3862434  0.5911926  0.060106   0.0532332  0.4843111]</t>
+  </si>
+  <si>
+    <t>[6.6806323 1.3770065 3.7221165 0.0678316 0.1203269 0.2614762 0.3163284
+ 0.1067527 0.153352  0.1866129 0.109062  0.1361436 0.0635651 0.0959166
+ 0.1354205 0.1584258 0.1741197 0.1756745 0.7801877 0.2519051 0.0555359
+ 0.0835847 0.1934    0.2581187 1.091896  0.076965  0.2184267 1.9482927
+ 0.8518557 2.3202445 4.3290853 0.0922478 0.2204881 0.0946186 0.6633235
+ 0.6540093 0.1335812 0.2576976 0.0820425 0.1758727 0.1713618 0.2824644
+ 0.0386444 0.4677382 0.1206334 0.0990591 0.355316  0.5124316 0.0667762
+ 0.0453136 0.0970509 0.2200307 1.1236596 0.0643922 0.1918645 1.1475312
+ 2.1338171 0.5332584 1.7522469 0.1075335 0.4543771 0.3202882 0.1767531
+ 0.5506319 0.2220981 0.2348144 0.1272638 0.1251906 0.0782013 0.563518
+ 0.0806161 0.2729965 0.2284094 0.1896671 0.382969  0.6759463 0.1053632
+ 0.0740396 0.1092493 0.8777175 1.0415217 0.0670368 0.178052  0.710007
+ 0.3411301 0.1521986 0.2297454 1.2024488 0.186095  0.2389034 0.2112961
+ 0.356577  0.3423785 0.1515528 0.162     0.1166921 0.1585414 0.1270861
+ 0.1253112 0.1176213 0.0592343 0.2456021 0.3438409 0.2599179 0.1788098
+ 0.7267984 0.9753788 3.812969  1.0373899 0.0995548 0.0765448 0.506591
+ 6.502866  1.1753599 3.6716166 0.0468881 0.1115649 0.2918315 0.3358272
+ 0.1008984 0.1130986 0.1009812 0.1089026 0.1222229 0.0973285 0.0836828
+ 0.0735897 0.25556   0.2089767 0.1225242 0.6512273 0.2962265 0.073954
+ 0.1324399 0.2090559 0.1495617 1.2790407 0.0720467 0.2416214 2.5909565
+ 1.1413488 1.8489095 4.8554575 0.1123921 0.2154264 0.1287296 0.5993575
+ 0.6674545 0.0931099 0.2319566 0.0852384 0.157562  0.0911801 0.3031515
+ 0.0353275 0.5137254 0.0789239 0.0416682 0.2240101 0.3915684 0.0679198
+ 0.0503451 0.0496236 0.0762763 0.6188889 0.0455717 0.1974535 1.3711607]</t>
   </si>
   <si>
     <t>_1</t>
@@ -911,10 +911,10 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="C2">
-        <v>0.86199999999999999</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D2">
-        <v>0.88300000000000001</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -922,13 +922,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.85299999999999998</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="C3">
-        <v>0.85599999999999998</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D3">
-        <v>0.877</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,13 +936,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.874</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C4">
-        <v>0.85499999999999998</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D4">
-        <v>0.89</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,13 +950,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.86899999999999999</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C5">
-        <v>0.86399999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D5">
-        <v>0.875</v>
+        <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,13 +964,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.85699999999999998</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="C6">
-        <v>0.86399999999999999</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="D6">
-        <v>0.88300000000000001</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,13 +978,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.89200000000000002</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="C7">
-        <v>0.89600000000000002</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D7">
-        <v>0.89400000000000002</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,13 +992,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.90200000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C8">
-        <v>0.89500000000000002</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D8">
-        <v>0.90400000000000003</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.89300000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="C9">
-        <v>0.89600000000000002</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D9">
-        <v>0.89300000000000002</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,13 +1020,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.89800000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C10">
-        <v>0.89500000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D10">
-        <v>0.90400000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,13 +1034,13 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.90200000000000002</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="C11">
-        <v>0.90300000000000002</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D11">
-        <v>0.89900000000000002</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,13 +1048,13 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0.90400000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="C12">
-        <v>0.9</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D12">
-        <v>0.91100000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>0.878</v>
       </c>
       <c r="C13">
-        <v>0.91100000000000003</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D13">
-        <v>0.91200000000000003</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,13 +1076,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.90800000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C14">
-        <v>0.91400000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="D14">
-        <v>0.91600000000000004</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.91700000000000004</v>
+        <v>0.871</v>
       </c>
       <c r="C15">
-        <v>0.91600000000000004</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D15">
-        <v>0.92200000000000004</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,13 +1104,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.90800000000000003</v>
+        <v>0.879</v>
       </c>
       <c r="C16">
-        <v>0.92400000000000004</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D16">
-        <v>0.91900000000000004</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,13 +1118,13 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.88100000000000001</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="C17">
-        <v>0.88400000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D17">
-        <v>0.88900000000000001</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,13 +1132,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0.89200000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C18">
-        <v>0.88100000000000001</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="D18">
-        <v>0.89900000000000002</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.89300000000000002</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="C19">
-        <v>0.88200000000000001</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D19">
-        <v>0.89</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,13 +1160,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0.88400000000000001</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C20">
-        <v>0.88400000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D20">
-        <v>0.89600000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,13 +1174,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0.88900000000000001</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="C21">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="D21">
-        <v>0.88300000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,13 +1188,13 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>0.89200000000000002</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C22">
-        <v>0.89600000000000002</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D22">
-        <v>0.90500000000000003</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.89300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="C23">
-        <v>0.9</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D23">
-        <v>0.89800000000000002</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.89900000000000002</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="C24">
-        <v>0.89300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D24">
-        <v>0.90100000000000002</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.89</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C25">
-        <v>0.89200000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D25">
-        <v>0.90400000000000003</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,13 +1244,13 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>0.89800000000000002</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C26">
-        <v>0.89500000000000002</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D26">
-        <v>0.89900000000000002</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,13 +1258,13 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.90100000000000002</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C27">
-        <v>0.90400000000000003</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D27">
-        <v>0.91800000000000004</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,13 +1272,13 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>0.90700000000000003</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C28">
-        <v>0.91200000000000003</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D28">
-        <v>0.91700000000000004</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,13 +1286,13 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.91100000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="C29">
-        <v>0.90900000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="D29">
-        <v>0.91700000000000004</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.90500000000000003</v>
+        <v>0.874</v>
       </c>
       <c r="C30">
-        <v>0.91600000000000004</v>
+        <v>0.876</v>
       </c>
       <c r="D30">
-        <v>0.91100000000000003</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>0.90600000000000003</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C31">
-        <v>0.91400000000000003</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D31">
-        <v>0.92100000000000004</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,13 +1328,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.93500000000000005</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="C32">
-        <v>0.94199999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D32">
-        <v>0.93600000000000005</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,13 +1342,13 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>0.93899999999999995</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="C33">
-        <v>0.94199999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D33">
-        <v>0.93</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,13 +1356,13 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.94199999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C34">
-        <v>0.93899999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D34">
-        <v>0.92900000000000005</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,13 +1370,13 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.94199999999999995</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="C35">
-        <v>0.94499999999999995</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D35">
-        <v>0.92900000000000005</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>0.94199999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="C36">
-        <v>0.94299999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D36">
-        <v>0.93400000000000005</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1398,13 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>0.94299999999999995</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C37">
-        <v>0.94199999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D37">
-        <v>0.94</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1412,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.94699999999999995</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C38">
-        <v>0.94299999999999995</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D38">
-        <v>0.93500000000000005</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1426,13 +1426,13 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.94099999999999995</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C39">
-        <v>0.93899999999999995</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D39">
-        <v>0.93600000000000005</v>
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>0.93799999999999994</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C40">
-        <v>0.94699999999999995</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D40">
-        <v>0.94</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,13 +1454,13 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>0.94799999999999995</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C41">
-        <v>0.94299999999999995</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D41">
-        <v>0.93600000000000005</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,13 +1468,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>0.9</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="C42">
-        <v>0.91200000000000003</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D42">
-        <v>0.90600000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,13 +1482,13 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>0.90500000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="C43">
-        <v>0.91300000000000003</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D43">
-        <v>0.90700000000000003</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,13 +1496,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.90700000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="C44">
-        <v>0.90400000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D44">
-        <v>0.88800000000000001</v>
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1510,13 +1510,13 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>0.91300000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="C45">
-        <v>0.91</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D45">
-        <v>0.90700000000000003</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1524,13 +1524,13 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>0.90700000000000003</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C46">
-        <v>0.92700000000000005</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D46">
-        <v>0.90100000000000002</v>
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1538,13 +1538,13 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0.89200000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="C47">
-        <v>0.89400000000000002</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D47">
-        <v>0.89600000000000002</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,13 +1552,13 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>0.89</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C48">
-        <v>0.88800000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D48">
-        <v>0.89500000000000002</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1566,13 +1566,13 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>0.89300000000000002</v>
+        <v>0.873</v>
       </c>
       <c r="C49">
-        <v>0.88700000000000001</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D49">
-        <v>0.89100000000000001</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,13 +1580,13 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>0.876</v>
+        <v>0.874</v>
       </c>
       <c r="C50">
-        <v>0.88500000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D50">
-        <v>0.89600000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1594,13 +1594,13 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>0.88600000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="C51">
-        <v>0.89300000000000002</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D51">
-        <v>0.89300000000000002</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,13 +1608,13 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.82</v>
+        <v>0.877</v>
       </c>
       <c r="C52">
-        <v>0.81699999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D52">
-        <v>0.82399999999999995</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1622,13 +1622,13 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.82799999999999996</v>
+        <v>0.873</v>
       </c>
       <c r="C53">
-        <v>0.81200000000000006</v>
+        <v>0.872</v>
       </c>
       <c r="D53">
-        <v>0.82599999999999996</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,13 +1636,13 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>0.80500000000000005</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="C54">
-        <v>0.80500000000000005</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D54">
-        <v>0.82299999999999995</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1650,13 +1650,13 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0.81499999999999995</v>
+        <v>0.877</v>
       </c>
       <c r="C55">
-        <v>0.83699999999999997</v>
+        <v>0.872</v>
       </c>
       <c r="D55">
-        <v>0.82199999999999995</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,13 +1664,13 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>0.81699999999999995</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C56">
-        <v>0.81100000000000005</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D56">
-        <v>0.80900000000000005</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,13 +1678,13 @@
         <v>15</v>
       </c>
       <c r="B57">
-        <v>0.83</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="C57">
-        <v>0.83399999999999996</v>
+        <v>0.878</v>
       </c>
       <c r="D57">
-        <v>0.85299999999999998</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1692,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="B58">
-        <v>0.82399999999999995</v>
+        <v>0.89</v>
       </c>
       <c r="C58">
-        <v>0.84</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D58">
-        <v>0.85599999999999998</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>0.83899999999999997</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C59">
-        <v>0.83099999999999996</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D59">
-        <v>0.85799999999999998</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1720,13 +1720,13 @@
         <v>15</v>
       </c>
       <c r="B60">
-        <v>0.84</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="C60">
-        <v>0.83399999999999996</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D60">
-        <v>0.84</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>0.85399999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="C61">
-        <v>0.83199999999999996</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D61">
-        <v>0.83299999999999996</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,13 +1748,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>0.76500000000000001</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="C62">
-        <v>0.755</v>
+        <v>0.86</v>
       </c>
       <c r="D62">
-        <v>0.754</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1762,13 +1762,13 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>0.77700000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C63">
-        <v>0.77800000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="D63">
-        <v>0.76300000000000001</v>
+        <v>0.82199999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,13 +1776,13 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>0.76300000000000001</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="C64">
-        <v>0.77</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D64">
-        <v>0.755</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,13 +1790,13 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <v>0.77400000000000002</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C65">
-        <v>0.76300000000000001</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D65">
-        <v>0.75800000000000001</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1804,13 +1804,13 @@
         <v>16</v>
       </c>
       <c r="B66">
-        <v>0.76600000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C66">
-        <v>0.77700000000000002</v>
+        <v>0.877</v>
       </c>
       <c r="D66">
-        <v>0.75700000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1818,13 +1818,13 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>0.82799999999999996</v>
+        <v>0.878</v>
       </c>
       <c r="C67">
-        <v>0.79600000000000004</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D67">
-        <v>0.80600000000000005</v>
+        <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,13 +1832,13 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>0.79600000000000004</v>
+        <v>0.879</v>
       </c>
       <c r="C68">
-        <v>0.80700000000000005</v>
+        <v>0.875</v>
       </c>
       <c r="D68">
-        <v>0.80500000000000005</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1846,13 +1846,13 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>0.82099999999999995</v>
+        <v>0.878</v>
       </c>
       <c r="C69">
-        <v>0.79200000000000004</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D69">
-        <v>0.79500000000000004</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1860,13 +1860,13 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>0.80100000000000005</v>
+        <v>0.879</v>
       </c>
       <c r="C70">
-        <v>0.79800000000000004</v>
+        <v>0.878</v>
       </c>
       <c r="D70">
-        <v>0.81200000000000006</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1874,13 +1874,13 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>0.80200000000000005</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C71">
-        <v>0.83</v>
+        <v>0.874</v>
       </c>
       <c r="D71">
-        <v>0.80700000000000005</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1888,13 +1888,13 @@
         <v>18</v>
       </c>
       <c r="B72">
-        <v>0.88</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C72">
-        <v>0.873</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D72">
-        <v>0.879</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1902,13 +1902,13 @@
         <v>18</v>
       </c>
       <c r="B73">
-        <v>0.874</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="C73">
-        <v>0.876</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D73">
-        <v>0.871</v>
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1916,13 +1916,13 @@
         <v>18</v>
       </c>
       <c r="B74">
-        <v>0.85699999999999998</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C74">
-        <v>0.85899999999999999</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D74">
-        <v>0.88700000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1930,13 +1930,13 @@
         <v>18</v>
       </c>
       <c r="B75">
-        <v>0.87</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="C75">
-        <v>0.871</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D75">
-        <v>0.88600000000000001</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1944,13 +1944,13 @@
         <v>18</v>
       </c>
       <c r="B76">
-        <v>0.85699999999999998</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="C76">
-        <v>0.86199999999999999</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D76">
-        <v>0.871</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1958,13 +1958,13 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>0.81899999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C77">
-        <v>0.82399999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D77">
-        <v>0.83</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1972,13 +1972,13 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>0.83099999999999996</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="C78">
-        <v>0.82499999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="D78">
-        <v>0.82199999999999995</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1986,13 +1986,13 @@
         <v>19</v>
       </c>
       <c r="B79">
-        <v>0.82399999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C79">
-        <v>0.81699999999999995</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D79">
-        <v>0.83599999999999997</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,13 +2000,13 @@
         <v>19</v>
       </c>
       <c r="B80">
-        <v>0.82299999999999995</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C80">
-        <v>0.81699999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="D80">
-        <v>0.81799999999999995</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2014,13 +2014,13 @@
         <v>19</v>
       </c>
       <c r="B81">
-        <v>0.83</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="C81">
-        <v>0.82099999999999995</v>
+        <v>0.872</v>
       </c>
       <c r="D81">
-        <v>0.81499999999999995</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2028,13 +2028,13 @@
         <v>20</v>
       </c>
       <c r="B82">
-        <v>0.88600000000000001</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="C82">
-        <v>0.88800000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D82">
-        <v>0.88800000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2042,13 +2042,13 @@
         <v>20</v>
       </c>
       <c r="B83">
-        <v>0.90300000000000002</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="C83">
-        <v>0.90300000000000002</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D83">
-        <v>0.89</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2056,13 +2056,13 @@
         <v>20</v>
       </c>
       <c r="B84">
-        <v>0.90900000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="C84">
-        <v>0.89600000000000002</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D84">
-        <v>0.89500000000000002</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2070,13 +2070,13 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <v>0.89800000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C85">
-        <v>0.88700000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D85">
-        <v>0.9</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2084,13 +2084,13 @@
         <v>20</v>
       </c>
       <c r="B86">
-        <v>0.90300000000000002</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C86">
-        <v>0.90400000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="D86">
-        <v>0.89500000000000002</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,13 +2098,13 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>0.89100000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="C87">
-        <v>0.88900000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D87">
-        <v>0.88900000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,13 +2112,13 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>0.88600000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C88">
         <v>0.88700000000000001</v>
       </c>
       <c r="D88">
-        <v>0.88500000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2126,13 +2126,13 @@
         <v>21</v>
       </c>
       <c r="B89">
-        <v>0.88400000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C89">
-        <v>0.90300000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D89">
-        <v>0.89400000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2140,13 +2140,13 @@
         <v>21</v>
       </c>
       <c r="B90">
-        <v>0.89200000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C90">
-        <v>0.89400000000000002</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D90">
-        <v>0.88700000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2154,13 +2154,13 @@
         <v>21</v>
       </c>
       <c r="B91">
-        <v>0.88800000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="C91">
-        <v>0.90200000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D91">
-        <v>0.88200000000000001</v>
+        <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>22</v>
       </c>
       <c r="B92">
-        <v>0.79700000000000004</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C92">
-        <v>0.79800000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D92">
-        <v>0.77500000000000002</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B93">
-        <v>0.78900000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="C93">
-        <v>0.80100000000000005</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D93">
-        <v>0.78200000000000003</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2196,13 +2196,13 @@
         <v>22</v>
       </c>
       <c r="B94">
-        <v>0.81100000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="C94">
-        <v>0.8</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D94">
-        <v>0.79400000000000004</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>22</v>
       </c>
       <c r="B95">
-        <v>0.78400000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C95">
-        <v>0.80100000000000005</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D95">
-        <v>0.78500000000000003</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,13 +2224,13 @@
         <v>22</v>
       </c>
       <c r="B96">
-        <v>0.79600000000000004</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C96">
-        <v>0.80600000000000005</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D96">
-        <v>0.77500000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,13 +2238,13 @@
         <v>23</v>
       </c>
       <c r="B97">
-        <v>0.90700000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="C97">
-        <v>0.89500000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D97">
-        <v>0.92200000000000004</v>
+        <v>0.89700000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,13 +2252,13 @@
         <v>23</v>
       </c>
       <c r="B98">
-        <v>0.90100000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C98">
-        <v>0.90300000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D98">
-        <v>0.91600000000000004</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,13 +2266,13 @@
         <v>23</v>
       </c>
       <c r="B99">
-        <v>0.91300000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="C99">
-        <v>0.90500000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D99">
-        <v>0.91600000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2280,13 +2280,13 @@
         <v>23</v>
       </c>
       <c r="B100">
-        <v>0.91700000000000004</v>
+        <v>0.872</v>
       </c>
       <c r="C100">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D100">
-        <v>0.90400000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>23</v>
       </c>
       <c r="B101">
-        <v>0.91300000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C101">
-        <v>0.89900000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="D101">
-        <v>0.91800000000000004</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
         <v>24</v>
       </c>
       <c r="B102">
-        <v>0.89900000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C102">
-        <v>0.90500000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D102">
-        <v>0.90700000000000003</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,13 +2322,13 @@
         <v>24</v>
       </c>
       <c r="B103">
-        <v>0.90800000000000003</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C103">
-        <v>0.90200000000000002</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D103">
-        <v>0.90900000000000003</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,13 +2336,13 @@
         <v>24</v>
       </c>
       <c r="B104">
-        <v>0.90400000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C104">
-        <v>0.88600000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D104">
-        <v>0.90400000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,10 +2350,10 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>0.88800000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C105">
-        <v>0.90900000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="D105">
         <v>0.90200000000000002</v>
@@ -2364,13 +2364,13 @@
         <v>24</v>
       </c>
       <c r="B106">
-        <v>0.91200000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="C106">
-        <v>0.90400000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D106">
-        <v>0.91200000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2378,13 +2378,13 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>0.91</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C107">
-        <v>0.89600000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D107">
-        <v>0.91500000000000004</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2392,13 +2392,13 @@
         <v>25</v>
       </c>
       <c r="B108">
-        <v>0.91</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="C108">
-        <v>0.89500000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D108">
-        <v>0.91500000000000004</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2406,13 +2406,13 @@
         <v>25</v>
       </c>
       <c r="B109">
+        <v>0.877</v>
+      </c>
+      <c r="C109">
         <v>0.89600000000000002</v>
       </c>
-      <c r="C109">
-        <v>0.89800000000000002</v>
-      </c>
       <c r="D109">
-        <v>0.91500000000000004</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2420,13 +2420,13 @@
         <v>25</v>
       </c>
       <c r="B110">
-        <v>0.90600000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C110">
-        <v>0.90100000000000002</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D110">
-        <v>0.91800000000000004</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2434,13 +2434,13 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>0.90100000000000002</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C111">
-        <v>0.91300000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D111">
-        <v>0.91100000000000003</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D331"/>
     </sheetView>
   </sheetViews>
@@ -2717,7 +2717,7 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>0.86199999999999999</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -2731,7 +2731,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>0.88300000000000001</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -2745,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.85299999999999998</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2759,7 +2759,7 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>0.85599999999999998</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2773,7 +2773,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>0.877</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -2787,7 +2787,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.874</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -2801,7 +2801,7 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <v>0.85499999999999998</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -2815,7 +2815,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0.89</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -2829,7 +2829,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>0.86899999999999999</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -2843,7 +2843,7 @@
         <v>75</v>
       </c>
       <c r="C12">
-        <v>0.86399999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -2857,7 +2857,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>0.875</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -2871,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>0.85699999999999998</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2885,7 +2885,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>0.86399999999999999</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -2899,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0.88300000000000001</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -2913,7 +2913,7 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>0.89200000000000002</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -2927,7 +2927,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>0.89600000000000002</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -2941,7 +2941,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>0.89400000000000002</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2955,7 +2955,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>0.90200000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2969,7 +2969,7 @@
         <v>75</v>
       </c>
       <c r="C21">
-        <v>0.89500000000000002</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2983,7 +2983,7 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>0.90400000000000003</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -2997,7 +2997,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>0.89300000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -3011,7 +3011,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>0.89600000000000002</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -3025,7 +3025,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.89300000000000002</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -3039,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>0.89800000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -3053,7 +3053,7 @@
         <v>75</v>
       </c>
       <c r="C27">
-        <v>0.89500000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -3067,7 +3067,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.90400000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -3081,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>0.90200000000000002</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -3095,7 +3095,7 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>0.90300000000000002</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -3109,7 +3109,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.89900000000000002</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -3123,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.90400000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -3137,7 +3137,7 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>0.9</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -3151,7 +3151,7 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>0.91100000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -3165,7 +3165,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>0.9</v>
+        <v>0.878</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -3179,7 +3179,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>0.91100000000000003</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -3193,7 +3193,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>0.91200000000000003</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -3207,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>0.90800000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -3221,7 +3221,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0.91400000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -3235,7 +3235,7 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>0.91600000000000004</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -3249,7 +3249,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>0.91700000000000004</v>
+        <v>0.871</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -3263,7 +3263,7 @@
         <v>75</v>
       </c>
       <c r="C42">
-        <v>0.91600000000000004</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -3277,7 +3277,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.92200000000000004</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -3291,7 +3291,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>0.90800000000000003</v>
+        <v>0.879</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -3305,7 +3305,7 @@
         <v>75</v>
       </c>
       <c r="C45">
-        <v>0.92400000000000004</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
@@ -3319,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>0.91900000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -3333,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="C47">
-        <v>0.88100000000000001</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3347,7 +3347,7 @@
         <v>75</v>
       </c>
       <c r="C48">
-        <v>0.88400000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3361,7 +3361,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>0.88900000000000001</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -3375,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>0.89200000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -3389,7 +3389,7 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>0.88100000000000001</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -3403,7 +3403,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.89900000000000002</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -3417,7 +3417,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>0.89300000000000002</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
@@ -3431,7 +3431,7 @@
         <v>75</v>
       </c>
       <c r="C54">
-        <v>0.88200000000000001</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3445,7 +3445,7 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>0.89</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3459,7 +3459,7 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>0.88400000000000001</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -3473,7 +3473,7 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>0.88400000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -3487,7 +3487,7 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>0.89600000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
@@ -3501,7 +3501,7 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>0.88900000000000001</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
@@ -3515,7 +3515,7 @@
         <v>75</v>
       </c>
       <c r="C60">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
@@ -3529,7 +3529,7 @@
         <v>50</v>
       </c>
       <c r="C61">
-        <v>0.88300000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -3543,7 +3543,7 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>0.89200000000000002</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D62" t="s">
         <v>80</v>
@@ -3557,7 +3557,7 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.89600000000000002</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
@@ -3571,7 +3571,7 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>0.90500000000000003</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -3585,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>0.89300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -3599,7 +3599,7 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.9</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
@@ -3613,7 +3613,7 @@
         <v>50</v>
       </c>
       <c r="C67">
-        <v>0.89800000000000002</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D67" t="s">
         <v>80</v>
@@ -3627,7 +3627,7 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>0.89900000000000002</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -3641,7 +3641,7 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>0.89300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -3655,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="C70">
-        <v>0.90100000000000002</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
@@ -3669,7 +3669,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>0.89</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
@@ -3683,7 +3683,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.89200000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
@@ -3697,7 +3697,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.90400000000000003</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -3711,7 +3711,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>0.89800000000000002</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D74" t="s">
         <v>80</v>
@@ -3725,7 +3725,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.89500000000000002</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -3739,7 +3739,7 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <v>0.89900000000000002</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
@@ -3753,7 +3753,7 @@
         <v>100</v>
       </c>
       <c r="C77">
-        <v>0.90100000000000002</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -3767,7 +3767,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <v>0.90400000000000003</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -3781,7 +3781,7 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <v>0.91800000000000004</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D79" t="s">
         <v>80</v>
@@ -3795,7 +3795,7 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>0.90700000000000003</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D80" t="s">
         <v>80</v>
@@ -3809,7 +3809,7 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>0.91200000000000003</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
@@ -3823,7 +3823,7 @@
         <v>50</v>
       </c>
       <c r="C82">
-        <v>0.91700000000000004</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
@@ -3837,7 +3837,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>0.91100000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="D83" t="s">
         <v>80</v>
@@ -3851,7 +3851,7 @@
         <v>75</v>
       </c>
       <c r="C84">
-        <v>0.90900000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="D84" t="s">
         <v>80</v>
@@ -3865,7 +3865,7 @@
         <v>50</v>
       </c>
       <c r="C85">
-        <v>0.91700000000000004</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D85" t="s">
         <v>80</v>
@@ -3879,7 +3879,7 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>0.90500000000000003</v>
+        <v>0.874</v>
       </c>
       <c r="D86" t="s">
         <v>80</v>
@@ -3893,7 +3893,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>0.91600000000000004</v>
+        <v>0.876</v>
       </c>
       <c r="D87" t="s">
         <v>80</v>
@@ -3907,7 +3907,7 @@
         <v>50</v>
       </c>
       <c r="C88">
-        <v>0.91100000000000003</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D88" t="s">
         <v>80</v>
@@ -3921,7 +3921,7 @@
         <v>100</v>
       </c>
       <c r="C89">
-        <v>0.90600000000000003</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -3935,7 +3935,7 @@
         <v>75</v>
       </c>
       <c r="C90">
-        <v>0.91400000000000003</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D90" t="s">
         <v>80</v>
@@ -3949,7 +3949,7 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>0.92100000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="D91" t="s">
         <v>80</v>
@@ -3963,7 +3963,7 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>0.93500000000000005</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D92" t="s">
         <v>80</v>
@@ -3977,7 +3977,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.94199999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D93" t="s">
         <v>80</v>
@@ -3991,7 +3991,7 @@
         <v>50</v>
       </c>
       <c r="C94">
-        <v>0.93600000000000005</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>80</v>
@@ -4005,7 +4005,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.93899999999999995</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4019,7 +4019,7 @@
         <v>75</v>
       </c>
       <c r="C96">
-        <v>0.94199999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
@@ -4033,7 +4033,7 @@
         <v>50</v>
       </c>
       <c r="C97">
-        <v>0.93</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -4047,7 +4047,7 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>0.94199999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D98" t="s">
         <v>80</v>
@@ -4061,7 +4061,7 @@
         <v>75</v>
       </c>
       <c r="C99">
-        <v>0.93899999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D99" t="s">
         <v>80</v>
@@ -4075,7 +4075,7 @@
         <v>50</v>
       </c>
       <c r="C100">
-        <v>0.92900000000000005</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D100" t="s">
         <v>80</v>
@@ -4089,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.94199999999999995</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D101" t="s">
         <v>80</v>
@@ -4103,7 +4103,7 @@
         <v>75</v>
       </c>
       <c r="C102">
-        <v>0.94499999999999995</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D102" t="s">
         <v>80</v>
@@ -4117,7 +4117,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.92900000000000005</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D103" t="s">
         <v>80</v>
@@ -4131,7 +4131,7 @@
         <v>100</v>
       </c>
       <c r="C104">
-        <v>0.94199999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D104" t="s">
         <v>80</v>
@@ -4145,7 +4145,7 @@
         <v>75</v>
       </c>
       <c r="C105">
-        <v>0.94299999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
@@ -4159,7 +4159,7 @@
         <v>50</v>
       </c>
       <c r="C106">
-        <v>0.93400000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="D106" t="s">
         <v>80</v>
@@ -4173,7 +4173,7 @@
         <v>100</v>
       </c>
       <c r="C107">
-        <v>0.94299999999999995</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D107" t="s">
         <v>80</v>
@@ -4187,7 +4187,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.94199999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -4201,7 +4201,7 @@
         <v>50</v>
       </c>
       <c r="C109">
-        <v>0.94</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D109" t="s">
         <v>80</v>
@@ -4215,7 +4215,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>0.94699999999999995</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D110" t="s">
         <v>80</v>
@@ -4229,7 +4229,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.94299999999999995</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D111" t="s">
         <v>80</v>
@@ -4243,7 +4243,7 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <v>0.93500000000000005</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D112" t="s">
         <v>80</v>
@@ -4257,7 +4257,7 @@
         <v>100</v>
       </c>
       <c r="C113">
-        <v>0.94099999999999995</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="D113" t="s">
         <v>80</v>
@@ -4271,7 +4271,7 @@
         <v>75</v>
       </c>
       <c r="C114">
-        <v>0.93899999999999995</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -4285,7 +4285,7 @@
         <v>50</v>
       </c>
       <c r="C115">
-        <v>0.93600000000000005</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4299,7 +4299,7 @@
         <v>100</v>
       </c>
       <c r="C116">
-        <v>0.93799999999999994</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="D116" t="s">
         <v>80</v>
@@ -4313,7 +4313,7 @@
         <v>75</v>
       </c>
       <c r="C117">
-        <v>0.94699999999999995</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -4327,7 +4327,7 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>0.94</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -4341,7 +4341,7 @@
         <v>100</v>
       </c>
       <c r="C119">
-        <v>0.94799999999999995</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -4355,7 +4355,7 @@
         <v>75</v>
       </c>
       <c r="C120">
-        <v>0.94299999999999995</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -4369,7 +4369,7 @@
         <v>50</v>
       </c>
       <c r="C121">
-        <v>0.93600000000000005</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
@@ -4383,7 +4383,7 @@
         <v>100</v>
       </c>
       <c r="C122">
-        <v>0.9</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -4397,7 +4397,7 @@
         <v>75</v>
       </c>
       <c r="C123">
-        <v>0.91200000000000003</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -4411,7 +4411,7 @@
         <v>50</v>
       </c>
       <c r="C124">
-        <v>0.90600000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -4425,7 +4425,7 @@
         <v>100</v>
       </c>
       <c r="C125">
-        <v>0.90500000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -4439,7 +4439,7 @@
         <v>75</v>
       </c>
       <c r="C126">
-        <v>0.91300000000000003</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -4453,7 +4453,7 @@
         <v>50</v>
       </c>
       <c r="C127">
-        <v>0.90700000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -4467,7 +4467,7 @@
         <v>100</v>
       </c>
       <c r="C128">
-        <v>0.90700000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
@@ -4481,7 +4481,7 @@
         <v>75</v>
       </c>
       <c r="C129">
-        <v>0.90400000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -4495,7 +4495,7 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>0.88800000000000001</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D130" t="s">
         <v>80</v>
@@ -4509,7 +4509,7 @@
         <v>100</v>
       </c>
       <c r="C131">
-        <v>0.91300000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
@@ -4523,7 +4523,7 @@
         <v>75</v>
       </c>
       <c r="C132">
-        <v>0.91</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D132" t="s">
         <v>80</v>
@@ -4537,7 +4537,7 @@
         <v>50</v>
       </c>
       <c r="C133">
-        <v>0.90700000000000003</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D133" t="s">
         <v>80</v>
@@ -4551,7 +4551,7 @@
         <v>100</v>
       </c>
       <c r="C134">
-        <v>0.90700000000000003</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D134" t="s">
         <v>80</v>
@@ -4565,7 +4565,7 @@
         <v>75</v>
       </c>
       <c r="C135">
-        <v>0.92700000000000005</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D135" t="s">
         <v>80</v>
@@ -4579,7 +4579,7 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>0.90100000000000002</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -4593,7 +4593,7 @@
         <v>100</v>
       </c>
       <c r="C137">
-        <v>0.89200000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D137" t="s">
         <v>80</v>
@@ -4607,7 +4607,7 @@
         <v>75</v>
       </c>
       <c r="C138">
-        <v>0.89400000000000002</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D138" t="s">
         <v>80</v>
@@ -4621,7 +4621,7 @@
         <v>50</v>
       </c>
       <c r="C139">
-        <v>0.89600000000000002</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D139" t="s">
         <v>80</v>
@@ -4635,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>0.89</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D140" t="s">
         <v>80</v>
@@ -4649,7 +4649,7 @@
         <v>75</v>
       </c>
       <c r="C141">
-        <v>0.88800000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D141" t="s">
         <v>80</v>
@@ -4663,7 +4663,7 @@
         <v>50</v>
       </c>
       <c r="C142">
-        <v>0.89500000000000002</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D142" t="s">
         <v>80</v>
@@ -4677,7 +4677,7 @@
         <v>100</v>
       </c>
       <c r="C143">
-        <v>0.89300000000000002</v>
+        <v>0.873</v>
       </c>
       <c r="D143" t="s">
         <v>80</v>
@@ -4691,7 +4691,7 @@
         <v>75</v>
       </c>
       <c r="C144">
-        <v>0.88700000000000001</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D144" t="s">
         <v>80</v>
@@ -4705,7 +4705,7 @@
         <v>50</v>
       </c>
       <c r="C145">
-        <v>0.89100000000000001</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D145" t="s">
         <v>80</v>
@@ -4719,7 +4719,7 @@
         <v>100</v>
       </c>
       <c r="C146">
-        <v>0.876</v>
+        <v>0.874</v>
       </c>
       <c r="D146" t="s">
         <v>80</v>
@@ -4733,7 +4733,7 @@
         <v>75</v>
       </c>
       <c r="C147">
-        <v>0.88500000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D147" t="s">
         <v>80</v>
@@ -4747,7 +4747,7 @@
         <v>50</v>
       </c>
       <c r="C148">
-        <v>0.89600000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D148" t="s">
         <v>80</v>
@@ -4761,7 +4761,7 @@
         <v>100</v>
       </c>
       <c r="C149">
-        <v>0.88600000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="D149" t="s">
         <v>80</v>
@@ -4775,7 +4775,7 @@
         <v>75</v>
       </c>
       <c r="C150">
-        <v>0.89300000000000002</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D150" t="s">
         <v>80</v>
@@ -4789,7 +4789,7 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>0.89300000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="D151" t="s">
         <v>80</v>
@@ -4803,7 +4803,7 @@
         <v>100</v>
       </c>
       <c r="C152">
-        <v>0.82</v>
+        <v>0.877</v>
       </c>
       <c r="D152" t="s">
         <v>80</v>
@@ -4817,7 +4817,7 @@
         <v>75</v>
       </c>
       <c r="C153">
-        <v>0.81699999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -4831,7 +4831,7 @@
         <v>50</v>
       </c>
       <c r="C154">
-        <v>0.82399999999999995</v>
+        <v>0.872</v>
       </c>
       <c r="D154" t="s">
         <v>80</v>
@@ -4845,7 +4845,7 @@
         <v>100</v>
       </c>
       <c r="C155">
-        <v>0.82799999999999996</v>
+        <v>0.873</v>
       </c>
       <c r="D155" t="s">
         <v>80</v>
@@ -4859,7 +4859,7 @@
         <v>75</v>
       </c>
       <c r="C156">
-        <v>0.81200000000000006</v>
+        <v>0.872</v>
       </c>
       <c r="D156" t="s">
         <v>80</v>
@@ -4873,7 +4873,7 @@
         <v>50</v>
       </c>
       <c r="C157">
-        <v>0.82599999999999996</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D157" t="s">
         <v>80</v>
@@ -4887,7 +4887,7 @@
         <v>100</v>
       </c>
       <c r="C158">
-        <v>0.80500000000000005</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4901,7 +4901,7 @@
         <v>75</v>
       </c>
       <c r="C159">
-        <v>0.80500000000000005</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D159" t="s">
         <v>80</v>
@@ -4915,7 +4915,7 @@
         <v>50</v>
       </c>
       <c r="C160">
-        <v>0.82299999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="D160" t="s">
         <v>80</v>
@@ -4929,7 +4929,7 @@
         <v>100</v>
       </c>
       <c r="C161">
-        <v>0.81499999999999995</v>
+        <v>0.877</v>
       </c>
       <c r="D161" t="s">
         <v>80</v>
@@ -4943,7 +4943,7 @@
         <v>75</v>
       </c>
       <c r="C162">
-        <v>0.83699999999999997</v>
+        <v>0.872</v>
       </c>
       <c r="D162" t="s">
         <v>80</v>
@@ -4957,7 +4957,7 @@
         <v>50</v>
       </c>
       <c r="C163">
-        <v>0.82199999999999995</v>
+        <v>0.874</v>
       </c>
       <c r="D163" t="s">
         <v>80</v>
@@ -4971,7 +4971,7 @@
         <v>100</v>
       </c>
       <c r="C164">
-        <v>0.81699999999999995</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D164" t="s">
         <v>80</v>
@@ -4985,7 +4985,7 @@
         <v>75</v>
       </c>
       <c r="C165">
-        <v>0.81100000000000005</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D165" t="s">
         <v>80</v>
@@ -4999,7 +4999,7 @@
         <v>50</v>
       </c>
       <c r="C166">
-        <v>0.80900000000000005</v>
+        <v>0.86</v>
       </c>
       <c r="D166" t="s">
         <v>80</v>
@@ -5013,7 +5013,7 @@
         <v>100</v>
       </c>
       <c r="C167">
-        <v>0.83</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D167" t="s">
         <v>80</v>
@@ -5027,7 +5027,7 @@
         <v>75</v>
       </c>
       <c r="C168">
-        <v>0.83399999999999996</v>
+        <v>0.878</v>
       </c>
       <c r="D168" t="s">
         <v>80</v>
@@ -5041,7 +5041,7 @@
         <v>50</v>
       </c>
       <c r="C169">
-        <v>0.85299999999999998</v>
+        <v>0.873</v>
       </c>
       <c r="D169" t="s">
         <v>80</v>
@@ -5055,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="C170">
-        <v>0.82399999999999995</v>
+        <v>0.89</v>
       </c>
       <c r="D170" t="s">
         <v>80</v>
@@ -5069,7 +5069,7 @@
         <v>75</v>
       </c>
       <c r="C171">
-        <v>0.84</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D171" t="s">
         <v>80</v>
@@ -5083,7 +5083,7 @@
         <v>50</v>
       </c>
       <c r="C172">
-        <v>0.85599999999999998</v>
+        <v>0.877</v>
       </c>
       <c r="D172" t="s">
         <v>80</v>
@@ -5097,7 +5097,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>0.83899999999999997</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D173" t="s">
         <v>80</v>
@@ -5111,7 +5111,7 @@
         <v>75</v>
       </c>
       <c r="C174">
-        <v>0.83099999999999996</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D174" t="s">
         <v>80</v>
@@ -5125,7 +5125,7 @@
         <v>50</v>
       </c>
       <c r="C175">
-        <v>0.85799999999999998</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -5139,7 +5139,7 @@
         <v>100</v>
       </c>
       <c r="C176">
-        <v>0.84</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -5153,7 +5153,7 @@
         <v>75</v>
       </c>
       <c r="C177">
-        <v>0.83399999999999996</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -5167,7 +5167,7 @@
         <v>50</v>
       </c>
       <c r="C178">
-        <v>0.84</v>
+        <v>0.876</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -5181,7 +5181,7 @@
         <v>100</v>
       </c>
       <c r="C179">
-        <v>0.85399999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -5195,7 +5195,7 @@
         <v>75</v>
       </c>
       <c r="C180">
-        <v>0.83199999999999996</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -5209,7 +5209,7 @@
         <v>50</v>
       </c>
       <c r="C181">
-        <v>0.83299999999999996</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D181" t="s">
         <v>80</v>
@@ -5223,7 +5223,7 @@
         <v>100</v>
       </c>
       <c r="C182">
-        <v>0.76500000000000001</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D182" t="s">
         <v>80</v>
@@ -5237,7 +5237,7 @@
         <v>75</v>
       </c>
       <c r="C183">
-        <v>0.755</v>
+        <v>0.86</v>
       </c>
       <c r="D183" t="s">
         <v>80</v>
@@ -5251,7 +5251,7 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>0.754</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D184" t="s">
         <v>80</v>
@@ -5265,7 +5265,7 @@
         <v>100</v>
       </c>
       <c r="C185">
-        <v>0.77700000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D185" t="s">
         <v>80</v>
@@ -5279,7 +5279,7 @@
         <v>75</v>
       </c>
       <c r="C186">
-        <v>0.77800000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="D186" t="s">
         <v>80</v>
@@ -5293,7 +5293,7 @@
         <v>50</v>
       </c>
       <c r="C187">
-        <v>0.76300000000000001</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="D187" t="s">
         <v>80</v>
@@ -5307,7 +5307,7 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>0.76300000000000001</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D188" t="s">
         <v>80</v>
@@ -5321,7 +5321,7 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>0.77</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D189" t="s">
         <v>80</v>
@@ -5335,7 +5335,7 @@
         <v>50</v>
       </c>
       <c r="C190">
-        <v>0.755</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D190" t="s">
         <v>80</v>
@@ -5349,7 +5349,7 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>0.77400000000000002</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -5363,7 +5363,7 @@
         <v>75</v>
       </c>
       <c r="C192">
-        <v>0.76300000000000001</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D192" t="s">
         <v>80</v>
@@ -5377,7 +5377,7 @@
         <v>50</v>
       </c>
       <c r="C193">
-        <v>0.75800000000000001</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="D193" t="s">
         <v>80</v>
@@ -5391,7 +5391,7 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>0.76600000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -5405,7 +5405,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>0.77700000000000002</v>
+        <v>0.877</v>
       </c>
       <c r="D195" t="s">
         <v>80</v>
@@ -5419,7 +5419,7 @@
         <v>50</v>
       </c>
       <c r="C196">
-        <v>0.75700000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D196" t="s">
         <v>80</v>
@@ -5433,7 +5433,7 @@
         <v>100</v>
       </c>
       <c r="C197">
-        <v>0.82799999999999996</v>
+        <v>0.878</v>
       </c>
       <c r="D197" t="s">
         <v>80</v>
@@ -5447,7 +5447,7 @@
         <v>75</v>
       </c>
       <c r="C198">
-        <v>0.79600000000000004</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
@@ -5461,7 +5461,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <v>0.80600000000000005</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
@@ -5475,7 +5475,7 @@
         <v>100</v>
       </c>
       <c r="C200">
-        <v>0.79600000000000004</v>
+        <v>0.879</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
@@ -5489,7 +5489,7 @@
         <v>75</v>
       </c>
       <c r="C201">
-        <v>0.80700000000000005</v>
+        <v>0.875</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
@@ -5503,7 +5503,7 @@
         <v>50</v>
       </c>
       <c r="C202">
-        <v>0.80500000000000005</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
@@ -5517,7 +5517,7 @@
         <v>100</v>
       </c>
       <c r="C203">
-        <v>0.82099999999999995</v>
+        <v>0.878</v>
       </c>
       <c r="D203" t="s">
         <v>80</v>
@@ -5531,7 +5531,7 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>0.79200000000000004</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
@@ -5545,7 +5545,7 @@
         <v>50</v>
       </c>
       <c r="C205">
-        <v>0.79500000000000004</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D205" t="s">
         <v>80</v>
@@ -5559,7 +5559,7 @@
         <v>100</v>
       </c>
       <c r="C206">
-        <v>0.80100000000000005</v>
+        <v>0.879</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
@@ -5573,7 +5573,7 @@
         <v>75</v>
       </c>
       <c r="C207">
-        <v>0.79800000000000004</v>
+        <v>0.878</v>
       </c>
       <c r="D207" t="s">
         <v>80</v>
@@ -5587,7 +5587,7 @@
         <v>50</v>
       </c>
       <c r="C208">
-        <v>0.81200000000000006</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D208" t="s">
         <v>80</v>
@@ -5601,7 +5601,7 @@
         <v>100</v>
       </c>
       <c r="C209">
-        <v>0.80200000000000005</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D209" t="s">
         <v>80</v>
@@ -5615,7 +5615,7 @@
         <v>75</v>
       </c>
       <c r="C210">
-        <v>0.83</v>
+        <v>0.874</v>
       </c>
       <c r="D210" t="s">
         <v>80</v>
@@ -5629,7 +5629,7 @@
         <v>50</v>
       </c>
       <c r="C211">
-        <v>0.80700000000000005</v>
+        <v>0.878</v>
       </c>
       <c r="D211" t="s">
         <v>80</v>
@@ -5643,7 +5643,7 @@
         <v>100</v>
       </c>
       <c r="C212">
-        <v>0.88</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D212" t="s">
         <v>80</v>
@@ -5657,7 +5657,7 @@
         <v>75</v>
       </c>
       <c r="C213">
-        <v>0.873</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
@@ -5671,7 +5671,7 @@
         <v>50</v>
       </c>
       <c r="C214">
-        <v>0.879</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -5685,7 +5685,7 @@
         <v>100</v>
       </c>
       <c r="C215">
-        <v>0.874</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D215" t="s">
         <v>80</v>
@@ -5699,7 +5699,7 @@
         <v>75</v>
       </c>
       <c r="C216">
-        <v>0.876</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D216" t="s">
         <v>80</v>
@@ -5713,7 +5713,7 @@
         <v>50</v>
       </c>
       <c r="C217">
-        <v>0.871</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D217" t="s">
         <v>80</v>
@@ -5727,7 +5727,7 @@
         <v>100</v>
       </c>
       <c r="C218">
-        <v>0.85699999999999998</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D218" t="s">
         <v>80</v>
@@ -5741,7 +5741,7 @@
         <v>75</v>
       </c>
       <c r="C219">
-        <v>0.85899999999999999</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D219" t="s">
         <v>80</v>
@@ -5755,7 +5755,7 @@
         <v>50</v>
       </c>
       <c r="C220">
-        <v>0.88700000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D220" t="s">
         <v>80</v>
@@ -5769,7 +5769,7 @@
         <v>100</v>
       </c>
       <c r="C221">
-        <v>0.87</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D221" t="s">
         <v>80</v>
@@ -5783,7 +5783,7 @@
         <v>75</v>
       </c>
       <c r="C222">
-        <v>0.871</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D222" t="s">
         <v>80</v>
@@ -5797,7 +5797,7 @@
         <v>50</v>
       </c>
       <c r="C223">
-        <v>0.88600000000000001</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D223" t="s">
         <v>80</v>
@@ -5811,7 +5811,7 @@
         <v>100</v>
       </c>
       <c r="C224">
-        <v>0.85699999999999998</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D224" t="s">
         <v>80</v>
@@ -5825,7 +5825,7 @@
         <v>75</v>
       </c>
       <c r="C225">
-        <v>0.86199999999999999</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D225" t="s">
         <v>80</v>
@@ -5839,7 +5839,7 @@
         <v>50</v>
       </c>
       <c r="C226">
-        <v>0.871</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D226" t="s">
         <v>80</v>
@@ -5853,7 +5853,7 @@
         <v>100</v>
       </c>
       <c r="C227">
-        <v>0.81899999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D227" t="s">
         <v>80</v>
@@ -5867,7 +5867,7 @@
         <v>75</v>
       </c>
       <c r="C228">
-        <v>0.82399999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D228" t="s">
         <v>80</v>
@@ -5881,7 +5881,7 @@
         <v>50</v>
       </c>
       <c r="C229">
-        <v>0.83</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D229" t="s">
         <v>80</v>
@@ -5895,7 +5895,7 @@
         <v>100</v>
       </c>
       <c r="C230">
-        <v>0.83099999999999996</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D230" t="s">
         <v>80</v>
@@ -5909,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="C231">
-        <v>0.82499999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="D231" t="s">
         <v>80</v>
@@ -5923,7 +5923,7 @@
         <v>50</v>
       </c>
       <c r="C232">
-        <v>0.82199999999999995</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D232" t="s">
         <v>80</v>
@@ -5937,7 +5937,7 @@
         <v>100</v>
       </c>
       <c r="C233">
-        <v>0.82399999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D233" t="s">
         <v>80</v>
@@ -5951,7 +5951,7 @@
         <v>75</v>
       </c>
       <c r="C234">
-        <v>0.81699999999999995</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D234" t="s">
         <v>80</v>
@@ -5965,7 +5965,7 @@
         <v>50</v>
       </c>
       <c r="C235">
-        <v>0.83599999999999997</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D235" t="s">
         <v>80</v>
@@ -5979,7 +5979,7 @@
         <v>100</v>
       </c>
       <c r="C236">
-        <v>0.82299999999999995</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D236" t="s">
         <v>80</v>
@@ -5993,7 +5993,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>0.81699999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="D237" t="s">
         <v>80</v>
@@ -6007,7 +6007,7 @@
         <v>50</v>
       </c>
       <c r="C238">
-        <v>0.81799999999999995</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D238" t="s">
         <v>80</v>
@@ -6021,7 +6021,7 @@
         <v>100</v>
       </c>
       <c r="C239">
-        <v>0.83</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D239" t="s">
         <v>80</v>
@@ -6035,7 +6035,7 @@
         <v>75</v>
       </c>
       <c r="C240">
-        <v>0.82099999999999995</v>
+        <v>0.872</v>
       </c>
       <c r="D240" t="s">
         <v>80</v>
@@ -6049,7 +6049,7 @@
         <v>50</v>
       </c>
       <c r="C241">
-        <v>0.81499999999999995</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D241" t="s">
         <v>80</v>
@@ -6063,7 +6063,7 @@
         <v>100</v>
       </c>
       <c r="C242">
-        <v>0.88600000000000001</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D242" t="s">
         <v>80</v>
@@ -6077,7 +6077,7 @@
         <v>75</v>
       </c>
       <c r="C243">
-        <v>0.88800000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D243" t="s">
         <v>80</v>
@@ -6091,7 +6091,7 @@
         <v>50</v>
       </c>
       <c r="C244">
-        <v>0.88800000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D244" t="s">
         <v>80</v>
@@ -6105,7 +6105,7 @@
         <v>100</v>
       </c>
       <c r="C245">
-        <v>0.90300000000000002</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D245" t="s">
         <v>80</v>
@@ -6119,7 +6119,7 @@
         <v>75</v>
       </c>
       <c r="C246">
-        <v>0.90300000000000002</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D246" t="s">
         <v>80</v>
@@ -6133,7 +6133,7 @@
         <v>50</v>
       </c>
       <c r="C247">
-        <v>0.89</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D247" t="s">
         <v>80</v>
@@ -6147,7 +6147,7 @@
         <v>100</v>
       </c>
       <c r="C248">
-        <v>0.90900000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D248" t="s">
         <v>80</v>
@@ -6161,7 +6161,7 @@
         <v>75</v>
       </c>
       <c r="C249">
-        <v>0.89600000000000002</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D249" t="s">
         <v>80</v>
@@ -6175,7 +6175,7 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.89500000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="D250" t="s">
         <v>80</v>
@@ -6189,7 +6189,7 @@
         <v>100</v>
       </c>
       <c r="C251">
-        <v>0.89800000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D251" t="s">
         <v>80</v>
@@ -6203,7 +6203,7 @@
         <v>75</v>
       </c>
       <c r="C252">
-        <v>0.88700000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D252" t="s">
         <v>80</v>
@@ -6217,7 +6217,7 @@
         <v>50</v>
       </c>
       <c r="C253">
-        <v>0.9</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D253" t="s">
         <v>80</v>
@@ -6231,7 +6231,7 @@
         <v>100</v>
       </c>
       <c r="C254">
-        <v>0.90300000000000002</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D254" t="s">
         <v>80</v>
@@ -6245,7 +6245,7 @@
         <v>75</v>
       </c>
       <c r="C255">
-        <v>0.90400000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="D255" t="s">
         <v>80</v>
@@ -6259,7 +6259,7 @@
         <v>50</v>
       </c>
       <c r="C256">
-        <v>0.89500000000000002</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D256" t="s">
         <v>80</v>
@@ -6273,7 +6273,7 @@
         <v>100</v>
       </c>
       <c r="C257">
-        <v>0.89100000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="D257" t="s">
         <v>80</v>
@@ -6287,7 +6287,7 @@
         <v>75</v>
       </c>
       <c r="C258">
-        <v>0.88900000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D258" t="s">
         <v>80</v>
@@ -6301,7 +6301,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.88900000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D259" t="s">
         <v>80</v>
@@ -6315,7 +6315,7 @@
         <v>100</v>
       </c>
       <c r="C260">
-        <v>0.88600000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D260" t="s">
         <v>80</v>
@@ -6343,7 +6343,7 @@
         <v>50</v>
       </c>
       <c r="C262">
-        <v>0.88500000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D262" t="s">
         <v>80</v>
@@ -6357,7 +6357,7 @@
         <v>100</v>
       </c>
       <c r="C263">
-        <v>0.88400000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D263" t="s">
         <v>80</v>
@@ -6371,7 +6371,7 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>0.90300000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D264" t="s">
         <v>80</v>
@@ -6385,7 +6385,7 @@
         <v>50</v>
       </c>
       <c r="C265">
-        <v>0.89400000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D265" t="s">
         <v>80</v>
@@ -6399,7 +6399,7 @@
         <v>100</v>
       </c>
       <c r="C266">
-        <v>0.89200000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D266" t="s">
         <v>80</v>
@@ -6413,7 +6413,7 @@
         <v>75</v>
       </c>
       <c r="C267">
-        <v>0.89400000000000002</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D267" t="s">
         <v>80</v>
@@ -6427,7 +6427,7 @@
         <v>50</v>
       </c>
       <c r="C268">
-        <v>0.88700000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D268" t="s">
         <v>80</v>
@@ -6441,7 +6441,7 @@
         <v>100</v>
       </c>
       <c r="C269">
-        <v>0.88800000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D269" t="s">
         <v>80</v>
@@ -6455,7 +6455,7 @@
         <v>75</v>
       </c>
       <c r="C270">
-        <v>0.90200000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D270" t="s">
         <v>80</v>
@@ -6469,7 +6469,7 @@
         <v>50</v>
       </c>
       <c r="C271">
-        <v>0.88200000000000001</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D271" t="s">
         <v>80</v>
@@ -6483,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="C272">
-        <v>0.79700000000000004</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D272" t="s">
         <v>80</v>
@@ -6497,7 +6497,7 @@
         <v>75</v>
       </c>
       <c r="C273">
-        <v>0.79800000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D273" t="s">
         <v>80</v>
@@ -6511,7 +6511,7 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>0.77500000000000002</v>
+        <v>0.878</v>
       </c>
       <c r="D274" t="s">
         <v>80</v>
@@ -6525,7 +6525,7 @@
         <v>100</v>
       </c>
       <c r="C275">
-        <v>0.78900000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D275" t="s">
         <v>80</v>
@@ -6539,7 +6539,7 @@
         <v>75</v>
       </c>
       <c r="C276">
-        <v>0.80100000000000005</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D276" t="s">
         <v>80</v>
@@ -6553,7 +6553,7 @@
         <v>50</v>
       </c>
       <c r="C277">
-        <v>0.78200000000000003</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D277" t="s">
         <v>80</v>
@@ -6567,7 +6567,7 @@
         <v>100</v>
       </c>
       <c r="C278">
-        <v>0.81100000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="D278" t="s">
         <v>80</v>
@@ -6581,7 +6581,7 @@
         <v>75</v>
       </c>
       <c r="C279">
-        <v>0.8</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D279" t="s">
         <v>80</v>
@@ -6595,7 +6595,7 @@
         <v>50</v>
       </c>
       <c r="C280">
-        <v>0.79400000000000004</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D280" t="s">
         <v>80</v>
@@ -6609,7 +6609,7 @@
         <v>100</v>
       </c>
       <c r="C281">
-        <v>0.78400000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D281" t="s">
         <v>80</v>
@@ -6623,7 +6623,7 @@
         <v>75</v>
       </c>
       <c r="C282">
-        <v>0.80100000000000005</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D282" t="s">
         <v>80</v>
@@ -6637,7 +6637,7 @@
         <v>50</v>
       </c>
       <c r="C283">
-        <v>0.78500000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="D283" t="s">
         <v>80</v>
@@ -6651,7 +6651,7 @@
         <v>100</v>
       </c>
       <c r="C284">
-        <v>0.79600000000000004</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D284" t="s">
         <v>80</v>
@@ -6665,7 +6665,7 @@
         <v>75</v>
       </c>
       <c r="C285">
-        <v>0.80600000000000005</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D285" t="s">
         <v>80</v>
@@ -6679,7 +6679,7 @@
         <v>50</v>
       </c>
       <c r="C286">
-        <v>0.77500000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D286" t="s">
         <v>80</v>
@@ -6693,7 +6693,7 @@
         <v>100</v>
       </c>
       <c r="C287">
-        <v>0.90700000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D287" t="s">
         <v>80</v>
@@ -6707,7 +6707,7 @@
         <v>75</v>
       </c>
       <c r="C288">
-        <v>0.89500000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D288" t="s">
         <v>80</v>
@@ -6721,7 +6721,7 @@
         <v>50</v>
       </c>
       <c r="C289">
-        <v>0.92200000000000004</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D289" t="s">
         <v>80</v>
@@ -6735,7 +6735,7 @@
         <v>100</v>
       </c>
       <c r="C290">
-        <v>0.90100000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D290" t="s">
         <v>80</v>
@@ -6749,7 +6749,7 @@
         <v>75</v>
       </c>
       <c r="C291">
-        <v>0.90300000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D291" t="s">
         <v>80</v>
@@ -6763,7 +6763,7 @@
         <v>50</v>
       </c>
       <c r="C292">
-        <v>0.91600000000000004</v>
+        <v>0.878</v>
       </c>
       <c r="D292" t="s">
         <v>80</v>
@@ -6777,7 +6777,7 @@
         <v>100</v>
       </c>
       <c r="C293">
-        <v>0.91300000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D293" t="s">
         <v>80</v>
@@ -6791,7 +6791,7 @@
         <v>75</v>
       </c>
       <c r="C294">
-        <v>0.90500000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D294" t="s">
         <v>80</v>
@@ -6805,7 +6805,7 @@
         <v>50</v>
       </c>
       <c r="C295">
-        <v>0.91600000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D295" t="s">
         <v>80</v>
@@ -6819,7 +6819,7 @@
         <v>100</v>
       </c>
       <c r="C296">
-        <v>0.91700000000000004</v>
+        <v>0.872</v>
       </c>
       <c r="D296" t="s">
         <v>80</v>
@@ -6833,7 +6833,7 @@
         <v>75</v>
       </c>
       <c r="C297">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D297" t="s">
         <v>80</v>
@@ -6847,7 +6847,7 @@
         <v>50</v>
       </c>
       <c r="C298">
-        <v>0.90400000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D298" t="s">
         <v>80</v>
@@ -6861,7 +6861,7 @@
         <v>100</v>
       </c>
       <c r="C299">
-        <v>0.91300000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D299" t="s">
         <v>80</v>
@@ -6875,7 +6875,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>0.89900000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="D300" t="s">
         <v>80</v>
@@ -6889,7 +6889,7 @@
         <v>50</v>
       </c>
       <c r="C301">
-        <v>0.91800000000000004</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D301" t="s">
         <v>80</v>
@@ -6903,7 +6903,7 @@
         <v>100</v>
       </c>
       <c r="C302">
-        <v>0.89900000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D302" t="s">
         <v>80</v>
@@ -6917,7 +6917,7 @@
         <v>75</v>
       </c>
       <c r="C303">
-        <v>0.90500000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D303" t="s">
         <v>80</v>
@@ -6931,7 +6931,7 @@
         <v>50</v>
       </c>
       <c r="C304">
-        <v>0.90700000000000003</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D304" t="s">
         <v>80</v>
@@ -6945,7 +6945,7 @@
         <v>100</v>
       </c>
       <c r="C305">
-        <v>0.90800000000000003</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D305" t="s">
         <v>80</v>
@@ -6959,7 +6959,7 @@
         <v>75</v>
       </c>
       <c r="C306">
-        <v>0.90200000000000002</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D306" t="s">
         <v>80</v>
@@ -6973,7 +6973,7 @@
         <v>50</v>
       </c>
       <c r="C307">
-        <v>0.90900000000000003</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D307" t="s">
         <v>80</v>
@@ -6987,7 +6987,7 @@
         <v>100</v>
       </c>
       <c r="C308">
-        <v>0.90400000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D308" t="s">
         <v>80</v>
@@ -7001,7 +7001,7 @@
         <v>75</v>
       </c>
       <c r="C309">
-        <v>0.88600000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D309" t="s">
         <v>80</v>
@@ -7015,7 +7015,7 @@
         <v>50</v>
       </c>
       <c r="C310">
-        <v>0.90400000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D310" t="s">
         <v>80</v>
@@ -7029,7 +7029,7 @@
         <v>100</v>
       </c>
       <c r="C311">
-        <v>0.88800000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D311" t="s">
         <v>80</v>
@@ -7043,7 +7043,7 @@
         <v>75</v>
       </c>
       <c r="C312">
-        <v>0.90900000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="D312" t="s">
         <v>80</v>
@@ -7071,7 +7071,7 @@
         <v>100</v>
       </c>
       <c r="C314">
-        <v>0.91200000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D314" t="s">
         <v>80</v>
@@ -7085,7 +7085,7 @@
         <v>75</v>
       </c>
       <c r="C315">
-        <v>0.90400000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D315" t="s">
         <v>80</v>
@@ -7099,7 +7099,7 @@
         <v>50</v>
       </c>
       <c r="C316">
-        <v>0.91200000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D316" t="s">
         <v>80</v>
@@ -7113,7 +7113,7 @@
         <v>100</v>
       </c>
       <c r="C317">
-        <v>0.91</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D317" t="s">
         <v>80</v>
@@ -7127,7 +7127,7 @@
         <v>75</v>
       </c>
       <c r="C318">
-        <v>0.89600000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D318" t="s">
         <v>80</v>
@@ -7141,7 +7141,7 @@
         <v>50</v>
       </c>
       <c r="C319">
-        <v>0.91500000000000004</v>
+        <v>0.874</v>
       </c>
       <c r="D319" t="s">
         <v>80</v>
@@ -7155,7 +7155,7 @@
         <v>100</v>
       </c>
       <c r="C320">
-        <v>0.91</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D320" t="s">
         <v>80</v>
@@ -7169,7 +7169,7 @@
         <v>75</v>
       </c>
       <c r="C321">
-        <v>0.89500000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D321" t="s">
         <v>80</v>
@@ -7183,7 +7183,7 @@
         <v>50</v>
       </c>
       <c r="C322">
-        <v>0.91500000000000004</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D322" t="s">
         <v>80</v>
@@ -7197,7 +7197,7 @@
         <v>100</v>
       </c>
       <c r="C323">
-        <v>0.89600000000000002</v>
+        <v>0.877</v>
       </c>
       <c r="D323" t="s">
         <v>80</v>
@@ -7211,7 +7211,7 @@
         <v>75</v>
       </c>
       <c r="C324">
-        <v>0.89800000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D324" t="s">
         <v>80</v>
@@ -7225,7 +7225,7 @@
         <v>50</v>
       </c>
       <c r="C325">
-        <v>0.91500000000000004</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D325" t="s">
         <v>80</v>
@@ -7239,7 +7239,7 @@
         <v>100</v>
       </c>
       <c r="C326">
-        <v>0.90600000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D326" t="s">
         <v>80</v>
@@ -7253,7 +7253,7 @@
         <v>75</v>
       </c>
       <c r="C327">
-        <v>0.90100000000000002</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D327" t="s">
         <v>80</v>
@@ -7267,7 +7267,7 @@
         <v>50</v>
       </c>
       <c r="C328">
-        <v>0.91800000000000004</v>
+        <v>0.877</v>
       </c>
       <c r="D328" t="s">
         <v>80</v>
@@ -7281,7 +7281,7 @@
         <v>100</v>
       </c>
       <c r="C329">
-        <v>0.90100000000000002</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D329" t="s">
         <v>80</v>
@@ -7295,7 +7295,7 @@
         <v>75</v>
       </c>
       <c r="C330">
-        <v>0.91300000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D330" t="s">
         <v>80</v>
@@ -7309,7 +7309,7 @@
         <v>50</v>
       </c>
       <c r="C331">
-        <v>0.91100000000000003</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D331" t="s">
         <v>80</v>
